--- a/Calibration/SoilWeightData.xlsx
+++ b/Calibration/SoilWeightData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="24240" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="24240" windowHeight="12840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
-    <sheet name="DryDownData" sheetId="2" r:id="rId2"/>
+    <sheet name="RepeatWeightData" sheetId="2" r:id="rId2"/>
     <sheet name="Crate Weights" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
     <sheet name="ForPython" sheetId="4" r:id="rId5"/>
@@ -19,15 +19,15 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId7"/>
-    <pivotCache cacheId="7" r:id="rId8"/>
-    <pivotCache cacheId="8" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="109">
   <si>
     <t>Layout for CS650 callibration crates</t>
   </si>
@@ -349,6 +349,12 @@
   <si>
     <t>SubSoil_0</t>
   </si>
+  <si>
+    <t>Wet Up</t>
+  </si>
+  <si>
+    <t>DryDown</t>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +435,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -547,6 +565,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,24 +1070,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="52040448"/>
-        <c:axId val="52043136"/>
+        <c:axId val="49443584"/>
+        <c:axId val="49445120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52040448"/>
+        <c:axId val="49443584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52043136"/>
+        <c:crossAx val="49445120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52043136"/>
+        <c:axId val="49445120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1095,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52040448"/>
+        <c:crossAx val="49443584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1083,7 +1107,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1567,23 +1591,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="56240000"/>
-        <c:axId val="56241536"/>
+        <c:axId val="49488640"/>
+        <c:axId val="49490176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56240000"/>
+        <c:axId val="49488640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\-mm\-dd\ h:mm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56241536"/>
+        <c:crossAx val="49490176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56241536"/>
+        <c:axId val="49490176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1615,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56240000"/>
+        <c:crossAx val="49488640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1603,7 +1627,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8489,7 +8513,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F48:G63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -8591,7 +8615,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B48:C63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -8692,7 +8716,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A20:F22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisCol" showAll="0">
@@ -8780,7 +8804,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:F14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -9227,7 +9251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -9872,10 +9896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC63"/>
+  <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9889,9 +9913,15 @@
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
@@ -9899,7 +9929,43 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="3" spans="1:30">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -9933,8 +9999,44 @@
       <c r="O4" s="9">
         <v>42072</v>
       </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="P4" s="9">
+        <v>42074</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>42076</v>
+      </c>
+      <c r="R4" s="9">
+        <v>42142</v>
+      </c>
+      <c r="S4" s="9">
+        <v>42144</v>
+      </c>
+      <c r="T4" s="9">
+        <v>42146</v>
+      </c>
+      <c r="U4" s="9">
+        <v>42149</v>
+      </c>
+      <c r="V4" s="9">
+        <v>42151</v>
+      </c>
+      <c r="W4" s="9">
+        <v>42153</v>
+      </c>
+      <c r="X4" s="9">
+        <v>42157</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>42158</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>42160</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>42163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -9968,8 +10070,44 @@
       <c r="O5" s="10">
         <v>0.44166666666666665</v>
       </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="P5" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="S5" s="10">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0.5493055555555556</v>
+      </c>
+      <c r="V5" s="10">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0.54861111111111105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="B6" t="s">
         <v>68</v>
       </c>
@@ -10003,8 +10141,44 @@
       <c r="O6" s="10">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="P6" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -10063,17 +10237,31 @@
       <c r="T8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="B9">
         <v>1</v>
       </c>
@@ -10116,8 +10304,44 @@
       <c r="O9">
         <v>42.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="P9">
+        <v>42</v>
+      </c>
+      <c r="Q9">
+        <v>41.65</v>
+      </c>
+      <c r="R9">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="S9">
+        <v>40.75</v>
+      </c>
+      <c r="T9">
+        <v>41.6</v>
+      </c>
+      <c r="U9">
+        <v>42</v>
+      </c>
+      <c r="V9">
+        <v>42.7</v>
+      </c>
+      <c r="W9">
+        <v>43.55</v>
+      </c>
+      <c r="X9">
+        <v>44</v>
+      </c>
+      <c r="Y9">
+        <v>45.15</v>
+      </c>
+      <c r="Z9">
+        <v>46.1</v>
+      </c>
+      <c r="AA9">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="B10">
         <v>2</v>
       </c>
@@ -10160,8 +10384,44 @@
       <c r="O10">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="P10">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Q10">
+        <v>76.25</v>
+      </c>
+      <c r="R10">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="S10">
+        <v>76.3</v>
+      </c>
+      <c r="T10">
+        <v>77</v>
+      </c>
+      <c r="U10">
+        <v>77.5</v>
+      </c>
+      <c r="V10">
+        <v>77.7</v>
+      </c>
+      <c r="W10">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="X10">
+        <v>77.8</v>
+      </c>
+      <c r="Y10">
+        <v>78.3</v>
+      </c>
+      <c r="Z10">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AA10">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="B11">
         <v>3</v>
       </c>
@@ -10204,8 +10464,44 @@
       <c r="O11">
         <v>58.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="P11">
+        <v>58.45</v>
+      </c>
+      <c r="Q11">
+        <v>58.25</v>
+      </c>
+      <c r="R11">
+        <v>57.15</v>
+      </c>
+      <c r="S11">
+        <v>57.35</v>
+      </c>
+      <c r="T11">
+        <v>58.25</v>
+      </c>
+      <c r="U11">
+        <v>58.8</v>
+      </c>
+      <c r="V11">
+        <v>58.9</v>
+      </c>
+      <c r="W11">
+        <v>59.05</v>
+      </c>
+      <c r="X11">
+        <v>58.95</v>
+      </c>
+      <c r="Y11">
+        <v>59.55</v>
+      </c>
+      <c r="Z11">
+        <v>59.95</v>
+      </c>
+      <c r="AA11">
+        <v>59.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="B12">
         <v>4</v>
       </c>
@@ -10248,8 +10544,44 @@
       <c r="O12">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="P12">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="Q12">
+        <v>66.3</v>
+      </c>
+      <c r="R12">
+        <v>65.25</v>
+      </c>
+      <c r="S12">
+        <v>65.25</v>
+      </c>
+      <c r="T12">
+        <v>65.75</v>
+      </c>
+      <c r="U12">
+        <v>66</v>
+      </c>
+      <c r="V12">
+        <v>66.3</v>
+      </c>
+      <c r="W12">
+        <v>66.2</v>
+      </c>
+      <c r="X12">
+        <v>66.45</v>
+      </c>
+      <c r="Y12">
+        <v>66.75</v>
+      </c>
+      <c r="Z12">
+        <v>66.95</v>
+      </c>
+      <c r="AA12">
+        <v>67.150000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="B13">
         <v>5</v>
       </c>
@@ -10292,8 +10624,44 @@
       <c r="O13">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="P13">
+        <v>49.65</v>
+      </c>
+      <c r="Q13">
+        <v>49.4</v>
+      </c>
+      <c r="R13">
+        <v>49.25</v>
+      </c>
+      <c r="S13">
+        <v>50.05</v>
+      </c>
+      <c r="T13">
+        <v>50.85</v>
+      </c>
+      <c r="U13">
+        <v>51.3</v>
+      </c>
+      <c r="V13">
+        <v>52.2</v>
+      </c>
+      <c r="W13">
+        <v>53.1</v>
+      </c>
+      <c r="X13">
+        <v>53.65</v>
+      </c>
+      <c r="Y13">
+        <v>54.95</v>
+      </c>
+      <c r="Z13">
+        <v>56.15</v>
+      </c>
+      <c r="AA13">
+        <v>56.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="B14">
         <v>6</v>
       </c>
@@ -10336,8 +10704,44 @@
       <c r="O14">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="P14">
+        <v>69.05</v>
+      </c>
+      <c r="Q14">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="R14">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="S14">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="T14">
+        <v>68.45</v>
+      </c>
+      <c r="U14">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="V14">
+        <v>69</v>
+      </c>
+      <c r="W14">
+        <v>68.95</v>
+      </c>
+      <c r="X14">
+        <v>69.25</v>
+      </c>
+      <c r="Y14">
+        <v>69.55</v>
+      </c>
+      <c r="Z14">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="AA14">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="B15">
         <v>7</v>
       </c>
@@ -10380,8 +10784,44 @@
       <c r="O15">
         <v>49.65</v>
       </c>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="P15">
+        <v>49.5</v>
+      </c>
+      <c r="Q15">
+        <v>49.25</v>
+      </c>
+      <c r="R15">
+        <v>49.2</v>
+      </c>
+      <c r="S15">
+        <v>50.15</v>
+      </c>
+      <c r="T15">
+        <v>51.1</v>
+      </c>
+      <c r="U15">
+        <v>51.55</v>
+      </c>
+      <c r="V15">
+        <v>52.45</v>
+      </c>
+      <c r="W15">
+        <v>53.35</v>
+      </c>
+      <c r="X15">
+        <v>53.95</v>
+      </c>
+      <c r="Y15">
+        <v>55.25</v>
+      </c>
+      <c r="Z15">
+        <v>56.35</v>
+      </c>
+      <c r="AA15">
+        <v>56.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="B16">
         <v>8</v>
       </c>
@@ -10424,8 +10864,44 @@
       <c r="O16">
         <v>41.85</v>
       </c>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="P16">
+        <v>41.6</v>
+      </c>
+      <c r="Q16">
+        <v>41.3</v>
+      </c>
+      <c r="R16">
+        <v>40.25</v>
+      </c>
+      <c r="S16">
+        <v>41.05</v>
+      </c>
+      <c r="T16">
+        <v>41.85</v>
+      </c>
+      <c r="U16">
+        <v>42.3</v>
+      </c>
+      <c r="V16">
+        <v>43.1</v>
+      </c>
+      <c r="W16">
+        <v>43.9</v>
+      </c>
+      <c r="X16">
+        <v>44.35</v>
+      </c>
+      <c r="Y16">
+        <v>45.6</v>
+      </c>
+      <c r="Z16">
+        <v>46.55</v>
+      </c>
+      <c r="AA16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
       <c r="B17">
         <v>9</v>
       </c>
@@ -10468,8 +10944,44 @@
       <c r="O17">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="P17">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="Q17">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="R17">
+        <v>75.75</v>
+      </c>
+      <c r="S17">
+        <v>75.95</v>
+      </c>
+      <c r="T17">
+        <v>76.75</v>
+      </c>
+      <c r="U17">
+        <v>77.25</v>
+      </c>
+      <c r="V17">
+        <v>77.45</v>
+      </c>
+      <c r="W17">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="X17">
+        <v>77.7</v>
+      </c>
+      <c r="Y17">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="Z17">
+        <v>78.5</v>
+      </c>
+      <c r="AA17">
+        <v>78.650000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27">
       <c r="B18">
         <v>10</v>
       </c>
@@ -10512,8 +11024,44 @@
       <c r="O18">
         <v>58.7</v>
       </c>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="P18">
+        <v>58.65</v>
+      </c>
+      <c r="Q18">
+        <v>58.5</v>
+      </c>
+      <c r="R18">
+        <v>57.4</v>
+      </c>
+      <c r="S18">
+        <v>57.6</v>
+      </c>
+      <c r="T18">
+        <v>58.6</v>
+      </c>
+      <c r="U18">
+        <v>59.1</v>
+      </c>
+      <c r="V18">
+        <v>59.2</v>
+      </c>
+      <c r="W18">
+        <v>59.35</v>
+      </c>
+      <c r="X18">
+        <v>59.3</v>
+      </c>
+      <c r="Y18">
+        <v>59.9</v>
+      </c>
+      <c r="Z18">
+        <v>60.25</v>
+      </c>
+      <c r="AA18">
+        <v>60.35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27">
       <c r="B19">
         <v>11</v>
       </c>
@@ -10556,8 +11104,44 @@
       <c r="O19">
         <v>77.2</v>
       </c>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="P19">
+        <v>77.2</v>
+      </c>
+      <c r="Q19">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="R19">
+        <v>77</v>
+      </c>
+      <c r="S19">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="T19">
+        <v>77.95</v>
+      </c>
+      <c r="U19">
+        <v>78.5</v>
+      </c>
+      <c r="V19">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="W19">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="X19">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="Y19">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="Z19">
+        <v>79.7</v>
+      </c>
+      <c r="AA19">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27">
       <c r="B20">
         <v>12</v>
       </c>
@@ -10600,8 +11184,44 @@
       <c r="O20">
         <v>69.2</v>
       </c>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="P20">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="Q20">
+        <v>69</v>
+      </c>
+      <c r="R20">
+        <v>67.95</v>
+      </c>
+      <c r="S20">
+        <v>68</v>
+      </c>
+      <c r="T20">
+        <v>68.55</v>
+      </c>
+      <c r="U20">
+        <v>68.75</v>
+      </c>
+      <c r="V20">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="W20">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="X20">
+        <v>69.3</v>
+      </c>
+      <c r="Y20">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="Z20">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="AA20">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27">
       <c r="B21">
         <v>13</v>
       </c>
@@ -10644,8 +11264,44 @@
       <c r="O21">
         <v>58.25</v>
       </c>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="P21">
+        <v>58.15</v>
+      </c>
+      <c r="Q21">
+        <v>57.95</v>
+      </c>
+      <c r="R21">
+        <v>56.8</v>
+      </c>
+      <c r="S21">
+        <v>57</v>
+      </c>
+      <c r="T21">
+        <v>57.95</v>
+      </c>
+      <c r="U21">
+        <v>58.6</v>
+      </c>
+      <c r="V21">
+        <v>58.8</v>
+      </c>
+      <c r="W21">
+        <v>59.05</v>
+      </c>
+      <c r="X21">
+        <v>59.05</v>
+      </c>
+      <c r="Y21">
+        <v>59.6</v>
+      </c>
+      <c r="Z21">
+        <v>60</v>
+      </c>
+      <c r="AA21">
+        <v>60.05</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27">
       <c r="B22">
         <v>14</v>
       </c>
@@ -10688,8 +11344,44 @@
       <c r="O22">
         <v>49.75</v>
       </c>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="P22">
+        <v>49.55</v>
+      </c>
+      <c r="Q22">
+        <v>49.35</v>
+      </c>
+      <c r="R22">
+        <v>49.2</v>
+      </c>
+      <c r="S22">
+        <v>50.15</v>
+      </c>
+      <c r="T22">
+        <v>51.2</v>
+      </c>
+      <c r="U22">
+        <v>51.9</v>
+      </c>
+      <c r="V22">
+        <v>52.85</v>
+      </c>
+      <c r="W22">
+        <v>53.9</v>
+      </c>
+      <c r="X22">
+        <v>54.65</v>
+      </c>
+      <c r="Y22">
+        <v>56.05</v>
+      </c>
+      <c r="Z22">
+        <v>56.7</v>
+      </c>
+      <c r="AA22">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27">
       <c r="B23">
         <v>15</v>
       </c>
@@ -10732,8 +11424,44 @@
       <c r="O23">
         <v>42.35</v>
       </c>
-    </row>
-    <row r="28" spans="2:15">
+      <c r="P23">
+        <v>42.15</v>
+      </c>
+      <c r="Q23">
+        <v>41.85</v>
+      </c>
+      <c r="R23">
+        <v>40.35</v>
+      </c>
+      <c r="S23">
+        <v>41.2</v>
+      </c>
+      <c r="T23">
+        <v>42.15</v>
+      </c>
+      <c r="U23">
+        <v>42.8</v>
+      </c>
+      <c r="V23">
+        <v>43.7</v>
+      </c>
+      <c r="W23">
+        <v>44.6</v>
+      </c>
+      <c r="X23">
+        <v>45.2</v>
+      </c>
+      <c r="Y23">
+        <v>46.45</v>
+      </c>
+      <c r="Z23">
+        <v>47.3</v>
+      </c>
+      <c r="AA23">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -10786,8 +11514,56 @@
         <f t="shared" si="0"/>
         <v>42072.4375</v>
       </c>
-    </row>
-    <row r="29" spans="2:15">
+      <c r="P28" s="25">
+        <f t="shared" ref="P28:Q28" si="1">P4+P6</f>
+        <v>42074.375</v>
+      </c>
+      <c r="Q28" s="25">
+        <f t="shared" si="1"/>
+        <v>42076.604166666664</v>
+      </c>
+      <c r="R28" s="25">
+        <f t="shared" ref="R28:AA28" si="2">R4+R6</f>
+        <v>42142.5625</v>
+      </c>
+      <c r="S28" s="25">
+        <f t="shared" si="2"/>
+        <v>42144.458333333336</v>
+      </c>
+      <c r="T28" s="25">
+        <f t="shared" si="2"/>
+        <v>42146.479166666664</v>
+      </c>
+      <c r="U28" s="25">
+        <f t="shared" si="2"/>
+        <v>42149.375</v>
+      </c>
+      <c r="V28" s="25">
+        <f t="shared" si="2"/>
+        <v>42151.583333333336</v>
+      </c>
+      <c r="W28" s="25">
+        <f t="shared" si="2"/>
+        <v>42153.354166666664</v>
+      </c>
+      <c r="X28" s="25">
+        <f t="shared" si="2"/>
+        <v>42157.333333333336</v>
+      </c>
+      <c r="Y28" s="25">
+        <f t="shared" si="2"/>
+        <v>42158.333333333336</v>
+      </c>
+      <c r="Z28" s="25">
+        <f t="shared" si="2"/>
+        <v>42160.458333333336</v>
+      </c>
+      <c r="AA28" s="25">
+        <f t="shared" si="2"/>
+        <v>42163.4375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27">
       <c r="B29">
         <v>1</v>
       </c>
@@ -10806,43 +11582,91 @@
         <v>0.39304252172763893</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:O29" si="1">(G9-$D49)/$D49</f>
+        <f t="shared" ref="G29:O29" si="3">(G9-$D49)/$D49</f>
         <v>0.37041441985186013</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.35768611254673438</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.32232970336582983</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.28980180691939772</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25868816684020168</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.23040303949547805</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22333175765929714</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.20494642488522682</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.1950466303145735</v>
       </c>
-    </row>
-    <row r="30" spans="2:15">
+      <c r="P29">
+        <f t="shared" ref="P29:Q29" si="4">(P9-$D49)/$D49</f>
+        <v>0.18797534847839259</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>0.1780755539077393</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29:AA29" si="5">(R9-$D49)/$D49</f>
+        <v>0.13281935015618143</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
+        <v>0.15261893929748807</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="5"/>
+        <v>0.17666129754050319</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="5"/>
+        <v>0.18797534847839259</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="5"/>
+        <v>0.20777493761969923</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="5"/>
+        <v>0.23181729586271416</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="5"/>
+        <v>0.24454560316783988</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="5"/>
+        <v>0.27707349961427202</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="5"/>
+        <v>0.30394437059175955</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="5"/>
+        <v>0.31525842152964895</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27">
       <c r="B30">
         <v>2</v>
       </c>
@@ -10857,47 +11681,95 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:O43" si="2">(F10-$D50)/$D50</f>
+        <f t="shared" ref="F30:O43" si="6">(F10-$D50)/$D50</f>
         <v>3.7328272492871357E-2</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.2082617511870852E-2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5525548785620085E-2</v>
       </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.4378531950993669E-2</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.1328769699931672E-3</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.1657563521178623E-3</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.8543426068677828E-3</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.1986357342427439E-3</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.2315151163674386E-3</v>
       </c>
       <c r="O30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.2315151163674386E-3</v>
       </c>
-    </row>
-    <row r="31" spans="2:15">
+      <c r="P30">
+        <f t="shared" ref="P30:Q30" si="7">(P10-$D50)/$D50</f>
+        <v>1.9201013711173597E-3</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>-4.7019246757945042E-5</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30:AA30" si="8">(R10-$D50)/$D50</f>
+        <v>-1.358432992008024E-3</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="8"/>
+        <v>6.0868762586709449E-4</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="8"/>
+        <v>9.7885838426182061E-3</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="8"/>
+        <v>1.6345652568868975E-2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="8"/>
+        <v>1.8968480059369318E-2</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="8"/>
+        <v>2.0935600677244436E-2</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="8"/>
+        <v>2.0279893804619396E-2</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="8"/>
+        <v>2.6836962530870166E-2</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="8"/>
+        <v>3.0771203766620587E-2</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="8"/>
+        <v>3.2082617511870852E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27">
       <c r="B31">
         <v>3</v>
       </c>
@@ -10912,47 +11784,95 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.17690234161554824</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16471132134383343</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15627138423264617</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.13001380210895269</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11782278183723788</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11500946946684218</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10750730314578678</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10563176156552306</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10188067840499537</v>
       </c>
       <c r="O31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.906736603459966E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:15">
+      <c r="P31">
+        <f t="shared" ref="P31:Q31" si="9">(P11-$D51)/$D51</f>
+        <v>9.6254053664203962E-2</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>9.2502970503676257E-2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ref="R31:AA31" si="10">(R11-$D51)/$D51</f>
+        <v>7.1872013120774195E-2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="10"/>
+        <v>7.5623096281301885E-2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="10"/>
+        <v>9.2502970503676257E-2</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="10"/>
+        <v>0.10281844919512723</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="10"/>
+        <v>0.10469399077539107</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="10"/>
+        <v>0.10750730314578678</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="10"/>
+        <v>0.10563176156552306</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="10"/>
+        <v>0.11688501104710589</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="10"/>
+        <v>0.12438717736816128</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="10"/>
+        <v>0.12438717736816128</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27">
       <c r="B32">
         <v>4</v>
       </c>
@@ -10967,47 +11887,95 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.2236643698188402E-2</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.6110083909552575E-2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.2280984041655235E-2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.6154424253019624E-2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.0793684437963223E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.9262044490804374E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4667124649327615E-2</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.3135484702168547E-2</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.0838024781430275E-2</v>
       </c>
       <c r="O32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.8540564860691784E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:15">
+      <c r="P32">
+        <f t="shared" ref="P32:Q32" si="11">(P12-$D52)/$D52</f>
+        <v>1.7008924913532938E-2</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="11"/>
+        <v>1.5477284966373872E-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ref="R32:AA32" si="12">(R12-$D52)/$D52</f>
+        <v>-6.0493447879490195E-4</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="12"/>
+        <v>-6.0493447879490195E-4</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="12"/>
+        <v>7.0532652569997734E-3</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="12"/>
+        <v>1.0882365124897111E-2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="12"/>
+        <v>1.5477284966373872E-2</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="12"/>
+        <v>1.3945645019215025E-2</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="12"/>
+        <v>1.7774744887112361E-2</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="12"/>
+        <v>2.2369664728589124E-2</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="12"/>
+        <v>2.5432944622907037E-2</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="12"/>
+        <v>2.8496224517224951E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27">
       <c r="B33">
         <v>5</v>
       </c>
@@ -11022,47 +11990,95 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.29183139969396765</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.27503983037385538</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26384545082711391</v>
       </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.22914287423221522</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.196679173546665</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.17876816627187853</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.14854334149567647</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.13511008603958682</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12503514444751943</v>
       </c>
       <c r="O33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11719907876480035</v>
       </c>
-    </row>
-    <row r="34" spans="2:15">
+      <c r="P33">
+        <f t="shared" ref="P33:Q33" si="13">(P13-$D53)/$D53</f>
+        <v>0.1116018889914296</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="13"/>
+        <v>0.10600469921805886</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ref="R33:AA33" si="14">(R13-$D53)/$D53</f>
+        <v>0.10264638535403645</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="14"/>
+        <v>0.12055739262882276</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="14"/>
+        <v>0.13846839990360924</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="14"/>
+        <v>0.14854334149567647</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="14"/>
+        <v>0.16869322467981127</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="14"/>
+        <v>0.18884310786394592</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="14"/>
+        <v>0.20115692536536151</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="14"/>
+        <v>0.23026231218688945</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="14"/>
+        <v>0.25712882309906893</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="14"/>
+        <v>0.2660843267364621</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27">
       <c r="B34">
         <v>6</v>
       </c>
@@ -11077,47 +12093,95 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.3590922271479693E-2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.5932722535685013E-2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.28694426413671E-2</v>
       </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.6742882852731273E-2</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.2147963011254507E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.985050309051602E-2</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.5255583249039253E-2</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.3723943301880415E-2</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.1426483381141921E-2</v>
       </c>
       <c r="O34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.8363203486824007E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:15">
+      <c r="P34">
+        <f t="shared" ref="P34:Q34" si="15">(P14-$D54)/$D54</f>
+        <v>5.7597383513244588E-2</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="15"/>
+        <v>5.4534103618926674E-2</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34:AA34" si="16">(R14-$D54)/$D54</f>
+        <v>3.9983524120916963E-2</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="16"/>
+        <v>3.9983524120916963E-2</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="16"/>
+        <v>4.8407543830291062E-2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="16"/>
+        <v>5.1470823724608976E-2</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="16"/>
+        <v>5.6831563539665161E-2</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="16"/>
+        <v>5.6065743566085735E-2</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="16"/>
+        <v>6.0660663407562501E-2</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="16"/>
+        <v>6.5255583249039253E-2</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="16"/>
+        <v>6.6787223196198328E-2</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="16"/>
+        <v>7.0616323064095668E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27">
       <c r="B35">
         <v>7</v>
       </c>
@@ -11132,47 +12196,95 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.22010785895598103</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.20619434828367603</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19442137771480242</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15910246600818195</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12913490456014035</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11308085378440375</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.9534912646656722E-2</v>
       </c>
       <c r="M35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.9902482181214859E-2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.1340321767488543E-2</v>
       </c>
       <c r="O35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.2778161353762393E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:15">
+      <c r="P35">
+        <f t="shared" ref="P35:Q35" si="17">(P15-$D55)/$D55</f>
+        <v>5.9567351198615108E-2</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="17"/>
+        <v>5.4216000940036244E-2</v>
+      </c>
+      <c r="R35">
+        <f t="shared" ref="R35:AA35" si="18">(R15-$D55)/$D55</f>
+        <v>5.314573088832053E-2</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="18"/>
+        <v>7.3480861870920122E-2</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="18"/>
+        <v>9.3815992853519867E-2</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="18"/>
+        <v>0.10344842331896173</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="18"/>
+        <v>0.12271328424984576</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="18"/>
+        <v>0.14197814518072965</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="18"/>
+        <v>0.15482138580131896</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="18"/>
+        <v>0.18264840714592898</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="18"/>
+        <v>0.20619434828367603</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="18"/>
+        <v>0.21261596859397058</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27">
       <c r="B36">
         <v>8</v>
       </c>
@@ -11187,47 +12299,95 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.38455698352422191</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.36475739438291532</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.34778631797608112</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.30253011422452325</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26151667957467406</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.24313134680060378</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.21626047582311622</v>
       </c>
       <c r="M36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.20494642488522682</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1936323739473374</v>
       </c>
       <c r="O36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18373257937668411</v>
       </c>
-    </row>
-    <row r="37" spans="2:15">
+      <c r="P36">
+        <f t="shared" ref="P36:Q36" si="19">(P16-$D56)/$D56</f>
+        <v>0.17666129754050319</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="19"/>
+        <v>0.16817575933708598</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ref="R36:AA36" si="20">(R16-$D56)/$D56</f>
+        <v>0.13847637562512624</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="20"/>
+        <v>0.16110447750090506</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="20"/>
+        <v>0.18373257937668411</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="20"/>
+        <v>0.19646088668180961</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="20"/>
+        <v>0.21908898855758863</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="20"/>
+        <v>0.24171709043336748</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="20"/>
+        <v>0.25444539773849317</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="20"/>
+        <v>0.28980180691939772</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="20"/>
+        <v>0.31667267789688508</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="20"/>
+        <v>0.32940098520201078</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27">
       <c r="B37">
         <v>9</v>
       </c>
@@ -11242,47 +12402,95 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.1426910639245811E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4869841912995048E-2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.0279893804619396E-2</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.5100494794928226E-3</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5758082437423993E-3</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.0868762586709449E-4</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-7.0272611938298449E-4</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-2.0141398646332498E-3</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-2.6698467372582892E-3</v>
       </c>
       <c r="O37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-3.3255536098833289E-3</v>
       </c>
-    </row>
-    <row r="38" spans="2:15">
+      <c r="P37">
+        <f t="shared" ref="P37:Q37" si="21">(P17-$D57)/$D57</f>
+        <v>-4.6369673551334076E-3</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="21"/>
+        <v>-4.6369673551334076E-3</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ref="R37:AA37" si="22">(R17-$D57)/$D57</f>
+        <v>-6.6040879730087125E-3</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="22"/>
+        <v>-3.9812604825083687E-3</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="22"/>
+        <v>6.5100494794928226E-3</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="22"/>
+        <v>1.306711820574359E-2</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="22"/>
+        <v>1.5689945696243934E-2</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="22"/>
+        <v>1.8312773186744277E-2</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="22"/>
+        <v>1.8968480059369318E-2</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="22"/>
+        <v>2.4869841912995048E-2</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="22"/>
+        <v>2.9459790021370509E-2</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="22"/>
+        <v>3.1426910639245811E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27">
       <c r="B38">
         <v>10</v>
       </c>
@@ -11297,47 +12505,95 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16189800897343773</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.14876921791159092</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15908469660304189</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12532494815829315</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11782278183723788</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11688501104710589</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10938284472605063</v>
       </c>
       <c r="M38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10656953235565493</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10469399077539107</v>
       </c>
       <c r="O38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10094290761486351</v>
       </c>
-    </row>
-    <row r="39" spans="2:15">
+      <c r="P38">
+        <f t="shared" ref="P38:Q38" si="23">(P18-$D58)/$D58</f>
+        <v>0.10000513682473151</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="23"/>
+        <v>9.7191824454335815E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" ref="R38:AA38" si="24">(R18-$D58)/$D58</f>
+        <v>7.6560867071433752E-2</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="24"/>
+        <v>8.0311950231961443E-2</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="24"/>
+        <v>9.906736603459966E-2</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="24"/>
+        <v>0.10844507393591878</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="24"/>
+        <v>0.11032061551618262</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="24"/>
+        <v>0.11313392788657833</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="24"/>
+        <v>0.11219615709644634</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="24"/>
+        <v>0.12344940657802929</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="24"/>
+        <v>0.13001380210895269</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="24"/>
+        <v>0.13188934368921654</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27">
       <c r="B39">
         <v>11</v>
       </c>
@@ -11352,47 +12608,95 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.847528932749777E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.0606806855996741E-2</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.6016858747621276E-2</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.2247014422494701E-2</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.8312773186744277E-2</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.7001359441494012E-2</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.5034238823618895E-2</v>
       </c>
       <c r="M39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.5034238823618895E-2</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.306711820574359E-2</v>
       </c>
       <c r="O39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.2411411333118551E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:15">
+      <c r="P39">
+        <f t="shared" ref="P39:Q39" si="25">(P19-$D59)/$D59</f>
+        <v>1.2411411333118551E-2</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="25"/>
+        <v>1.1099997587868286E-2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ref="R39:AA39" si="26">(R19-$D59)/$D59</f>
+        <v>9.7885838426182061E-3</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="26"/>
+        <v>1.1755704460493512E-2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="26"/>
+        <v>2.2247014422494701E-2</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="26"/>
+        <v>2.9459790021370509E-2</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="26"/>
+        <v>3.1426910639245811E-2</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="26"/>
+        <v>3.4705445002371195E-2</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="26"/>
+        <v>3.4705445002371195E-2</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="26"/>
+        <v>4.0606806855996741E-2</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="26"/>
+        <v>4.5196754964372386E-2</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="26"/>
+        <v>4.6508168709622467E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27">
       <c r="B40">
         <v>12</v>
       </c>
@@ -11407,47 +12711,95 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.0527642377161779E-2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.3635262614946526E-2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.0571982720628613E-2</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.521124290557242E-2</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.1382143037675094E-2</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.985050309051602E-2</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.602140322261868E-2</v>
       </c>
       <c r="M40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.4489763275459841E-2</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.2192303354721347E-2</v>
       </c>
       <c r="O40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.9894843433983075E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:15">
+      <c r="P40">
+        <f t="shared" ref="P40:Q40" si="27">(P20-$D60)/$D60</f>
+        <v>5.8363203486824007E-2</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="27"/>
+        <v>5.6831563539665161E-2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" ref="R40:AA40" si="28">(R20-$D60)/$D60</f>
+        <v>4.074934409449639E-2</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="28"/>
+        <v>4.1515164068075809E-2</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="28"/>
+        <v>4.9939183777449908E-2</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="28"/>
+        <v>5.3002463671767822E-2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="28"/>
+        <v>5.8363203486824007E-2</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="28"/>
+        <v>5.9129023460403649E-2</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="28"/>
+        <v>6.1426483381141921E-2</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="28"/>
+        <v>6.6787223196198328E-2</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="28"/>
+        <v>6.985050309051602E-2</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="28"/>
+        <v>7.3679602958413359E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27">
       <c r="B41">
         <v>13</v>
       </c>
@@ -11462,47 +12814,95 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.14783144712145907</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.14032928080040366</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15252030107211861</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.12251163578789744</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11407169867671019</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11032061551618262</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10281844919512723</v>
       </c>
       <c r="M41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.10000513682473151</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.531628287407197E-2</v>
       </c>
       <c r="O41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.2502970503676257E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:15">
+      <c r="P41">
+        <f t="shared" ref="P41:Q41" si="29">(P21-$D61)/$D61</f>
+        <v>9.0627428923412412E-2</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="29"/>
+        <v>8.6876345762884846E-2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="R41:AA41" si="30">(R21-$D61)/$D61</f>
+        <v>6.5307617589850792E-2</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="30"/>
+        <v>6.9058700750378482E-2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="30"/>
+        <v>8.6876345762884846E-2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="30"/>
+        <v>9.906736603459966E-2</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="30"/>
+        <v>0.10281844919512723</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="30"/>
+        <v>0.10750730314578678</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="30"/>
+        <v>0.10750730314578678</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="30"/>
+        <v>0.11782278183723788</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="30"/>
+        <v>0.12532494815829315</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="30"/>
+        <v>0.126262718948425</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27">
       <c r="B42">
         <v>14</v>
       </c>
@@ -11517,47 +12917,95 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.22759974931799148</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.21261596859397058</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.20084299802509714</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1665943563701924</v>
       </c>
       <c r="J42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1344862548187192</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.11843220404298262</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.2745722801804001E-2</v>
       </c>
       <c r="M42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.3113292336362138E-2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.3480861870920122E-2</v>
       </c>
       <c r="O42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.4918701457193972E-2</v>
       </c>
-    </row>
-    <row r="43" spans="2:15">
+      <c r="P42">
+        <f t="shared" ref="P42:Q42" si="31">(P22-$D62)/$D62</f>
+        <v>6.0637621250330821E-2</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="31"/>
+        <v>5.6356541043467823E-2</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ref="R42:AA42" si="32">(R22-$D62)/$D62</f>
+        <v>5.314573088832053E-2</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="32"/>
+        <v>7.3480861870920122E-2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="32"/>
+        <v>9.5956532956951446E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="32"/>
+        <v>0.11094031368097218</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="32"/>
+        <v>0.13127544466357191</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="32"/>
+        <v>0.1537511157496031</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="32"/>
+        <v>0.16980516652533967</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="32"/>
+        <v>0.1997727279733813</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="32"/>
+        <v>0.21368623864568645</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="32"/>
+        <v>0.21368623864568645</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27">
       <c r="B43">
         <v>15</v>
       </c>
@@ -11572,47 +13020,95 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.39728529082934744</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.37889995805527715</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.36475739438291532</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.32374395973306597</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.28555903781768921</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26293093594191019</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23323155222995046</v>
       </c>
       <c r="M43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.22333175765929714</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.20918919398693533</v>
       </c>
       <c r="O43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19787514304904591</v>
       </c>
-    </row>
-    <row r="48" spans="2:15">
+      <c r="P43">
+        <f t="shared" ref="P43:Q43" si="33">(P23-$D63)/$D63</f>
+        <v>0.1922181175801011</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="33"/>
+        <v>0.18373257937668411</v>
+      </c>
+      <c r="R43">
+        <f t="shared" ref="R43:AA43" si="34">(R23-$D63)/$D63</f>
+        <v>0.14130488835959865</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="34"/>
+        <v>0.16534724660261377</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="34"/>
+        <v>0.1922181175801011</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="34"/>
+        <v>0.21060345035417144</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="34"/>
+        <v>0.23606006496442286</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="34"/>
+        <v>0.26151667957467406</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="34"/>
+        <v>0.27848775598150832</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="34"/>
+        <v>0.31384416516241287</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="34"/>
+        <v>0.3378865234054278</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="34"/>
+        <v>0.34637206160884498</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27">
       <c r="B48" s="22" t="s">
         <v>65</v>
       </c>
@@ -11652,7 +13148,7 @@
         <v>73.863585386147449</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D63" si="3">C50+2.39</f>
+        <f t="shared" ref="D50:D63" si="35">C50+2.39</f>
         <v>76.253585386147449</v>
       </c>
       <c r="F50" s="23">
@@ -11670,7 +13166,7 @@
         <v>50.927932831930903</v>
       </c>
       <c r="D51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>53.317932831930904</v>
       </c>
       <c r="F51" s="23">
@@ -11688,7 +13184,7 @@
         <v>62.899495867153178</v>
       </c>
       <c r="D52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>65.289495867153178</v>
       </c>
       <c r="F52" s="23">
@@ -11706,7 +13202,7 @@
         <v>42.275271345524672</v>
       </c>
       <c r="D53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>44.665271345524673</v>
       </c>
       <c r="F53" s="23">
@@ -11724,7 +13220,7 @@
         <v>62.899495867153178</v>
       </c>
       <c r="D54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>65.289495867153178</v>
       </c>
       <c r="F54" s="23">
@@ -11742,7 +13238,7 @@
         <v>44.327181257051834</v>
       </c>
       <c r="D55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>46.717181257051834</v>
       </c>
       <c r="F55" s="23">
@@ -11760,7 +13256,7 @@
         <v>32.964268970139251</v>
       </c>
       <c r="D56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>35.354268970139252</v>
       </c>
       <c r="F56" s="23">
@@ -11778,7 +13274,7 @@
         <v>73.863585386147449</v>
       </c>
       <c r="D57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>76.253585386147449</v>
       </c>
       <c r="F57" s="23">
@@ -11796,7 +13292,7 @@
         <v>50.927932831930903</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>53.317932831930904</v>
       </c>
       <c r="F58" s="23">
@@ -11814,7 +13310,7 @@
         <v>73.863585386147449</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>76.253585386147449</v>
       </c>
       <c r="F59" s="23">
@@ -11832,7 +13328,7 @@
         <v>62.899495867153178</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>65.289495867153178</v>
       </c>
       <c r="F60" s="23">
@@ -11850,7 +13346,7 @@
         <v>50.927932831930903</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>53.317932831930904</v>
       </c>
       <c r="F61" s="23">
@@ -11868,7 +13364,7 @@
         <v>44.327181257051834</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>46.717181257051834</v>
       </c>
       <c r="F62" s="23">
@@ -11886,7 +13382,7 @@
         <v>32.964268970139251</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="35"/>
         <v>35.354268970139252</v>
       </c>
       <c r="F63" s="23">
@@ -11897,6 +13393,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="R3:AD3"/>
+    <mergeCell ref="F3:Q3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
@@ -14619,10 +16119,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14633,920 +16133,1742 @@
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="str">
-        <f>DryDownData!B28</f>
+        <f>RepeatWeightData!B28</f>
         <v>Plot</v>
       </c>
       <c r="B1" s="1" t="str">
-        <f>DryDownData!C28</f>
+        <f>RepeatWeightData!C28</f>
         <v>Trt</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f>DryDownData!D28</f>
+        <f>RepeatWeightData!D28</f>
         <v>TrtNo</v>
       </c>
       <c r="D1" s="1" t="str">
-        <f>DryDownData!E28</f>
+        <f>RepeatWeightData!E28</f>
         <v>Rep</v>
       </c>
       <c r="E1" s="25">
-        <f>DryDownData!F28</f>
+        <f>RepeatWeightData!F28</f>
         <v>42053.5625</v>
       </c>
       <c r="F1" s="25">
-        <f>DryDownData!G28</f>
+        <f>RepeatWeightData!G28</f>
         <v>42054.458333333336</v>
       </c>
       <c r="G1" s="25">
-        <f>DryDownData!H28</f>
+        <f>RepeatWeightData!H28</f>
         <v>42055.479166666664</v>
       </c>
       <c r="H1" s="25">
-        <f>DryDownData!I28</f>
+        <f>RepeatWeightData!I28</f>
         <v>42058.375</v>
       </c>
       <c r="I1" s="25">
-        <f>DryDownData!J28</f>
+        <f>RepeatWeightData!J28</f>
         <v>42060.583333333336</v>
       </c>
       <c r="J1" s="25">
-        <f>DryDownData!K28</f>
+        <f>RepeatWeightData!K28</f>
         <v>42062.354166666664</v>
       </c>
       <c r="K1" s="25">
-        <f>DryDownData!L28</f>
+        <f>RepeatWeightData!L28</f>
         <v>42065.333333333336</v>
       </c>
       <c r="L1" s="25">
-        <f>DryDownData!M28</f>
+        <f>RepeatWeightData!M28</f>
         <v>42067.333333333336</v>
       </c>
       <c r="M1" s="25">
-        <f>DryDownData!N28</f>
+        <f>RepeatWeightData!N28</f>
         <v>42069.458333333336</v>
       </c>
       <c r="N1" s="25">
-        <f>DryDownData!O28</f>
+        <f>RepeatWeightData!O28</f>
         <v>42072.4375</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="25">
+        <f>RepeatWeightData!P28</f>
+        <v>42074.375</v>
+      </c>
+      <c r="P1" s="25">
+        <f>RepeatWeightData!Q28</f>
+        <v>42076.604166666664</v>
+      </c>
+      <c r="Q1" s="25">
+        <f>RepeatWeightData!R28</f>
+        <v>42142.5625</v>
+      </c>
+      <c r="R1" s="25">
+        <f>RepeatWeightData!S28</f>
+        <v>42144.458333333336</v>
+      </c>
+      <c r="S1" s="25">
+        <f>RepeatWeightData!T28</f>
+        <v>42146.479166666664</v>
+      </c>
+      <c r="T1" s="25">
+        <f>RepeatWeightData!U28</f>
+        <v>42149.375</v>
+      </c>
+      <c r="U1" s="25">
+        <f>RepeatWeightData!V28</f>
+        <v>42151.583333333336</v>
+      </c>
+      <c r="V1" s="25">
+        <f>RepeatWeightData!W28</f>
+        <v>42153.354166666664</v>
+      </c>
+      <c r="W1" s="25">
+        <f>RepeatWeightData!X28</f>
+        <v>42157.333333333336</v>
+      </c>
+      <c r="X1" s="25">
+        <f>RepeatWeightData!Y28</f>
+        <v>42158.333333333336</v>
+      </c>
+      <c r="Y1" s="25">
+        <f>RepeatWeightData!Z28</f>
+        <v>42160.458333333336</v>
+      </c>
+      <c r="Z1" s="25">
+        <f>RepeatWeightData!AA28</f>
+        <v>42163.4375</v>
+      </c>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>89</v>
       </c>
       <c r="B2" t="str">
-        <f>DryDownData!C29</f>
+        <f>RepeatWeightData!C29</f>
         <v>TopSoil_0</v>
       </c>
       <c r="C2">
-        <f>DryDownData!D29</f>
+        <f>RepeatWeightData!D29</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f>DryDownData!E29</f>
+        <f>RepeatWeightData!E29</f>
         <v>1</v>
       </c>
       <c r="E2" s="26">
-        <f>DryDownData!F29</f>
+        <f>RepeatWeightData!F29</f>
         <v>0.39304252172763893</v>
       </c>
       <c r="F2" s="26">
-        <f>DryDownData!G29</f>
+        <f>RepeatWeightData!G29</f>
         <v>0.37041441985186013</v>
       </c>
       <c r="G2" s="26">
-        <f>DryDownData!H29</f>
+        <f>RepeatWeightData!H29</f>
         <v>0.35768611254673438</v>
       </c>
       <c r="H2" s="26">
-        <f>DryDownData!I29</f>
+        <f>RepeatWeightData!I29</f>
         <v>0.32232970336582983</v>
       </c>
       <c r="I2" s="26">
-        <f>DryDownData!J29</f>
+        <f>RepeatWeightData!J29</f>
         <v>0.28980180691939772</v>
       </c>
       <c r="J2" s="26">
-        <f>DryDownData!K29</f>
+        <f>RepeatWeightData!K29</f>
         <v>0.25868816684020168</v>
       </c>
       <c r="K2" s="26">
-        <f>DryDownData!L29</f>
+        <f>RepeatWeightData!L29</f>
         <v>0.23040303949547805</v>
       </c>
       <c r="L2" s="26">
-        <f>DryDownData!M29</f>
+        <f>RepeatWeightData!M29</f>
         <v>0.22333175765929714</v>
       </c>
       <c r="M2" s="26">
-        <f>DryDownData!N29</f>
+        <f>RepeatWeightData!N29</f>
         <v>0.20494642488522682</v>
       </c>
       <c r="N2" s="26">
-        <f>DryDownData!O29</f>
+        <f>RepeatWeightData!O29</f>
         <v>0.1950466303145735</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="26">
+        <f>RepeatWeightData!P29</f>
+        <v>0.18797534847839259</v>
+      </c>
+      <c r="P2" s="26">
+        <f>RepeatWeightData!Q29</f>
+        <v>0.1780755539077393</v>
+      </c>
+      <c r="Q2" s="26">
+        <f>RepeatWeightData!R29</f>
+        <v>0.13281935015618143</v>
+      </c>
+      <c r="R2" s="26">
+        <f>RepeatWeightData!S29</f>
+        <v>0.15261893929748807</v>
+      </c>
+      <c r="S2" s="26">
+        <f>RepeatWeightData!T29</f>
+        <v>0.17666129754050319</v>
+      </c>
+      <c r="T2" s="26">
+        <f>RepeatWeightData!U29</f>
+        <v>0.18797534847839259</v>
+      </c>
+      <c r="U2" s="26">
+        <f>RepeatWeightData!V29</f>
+        <v>0.20777493761969923</v>
+      </c>
+      <c r="V2" s="26">
+        <f>RepeatWeightData!W29</f>
+        <v>0.23181729586271416</v>
+      </c>
+      <c r="W2" s="26">
+        <f>RepeatWeightData!X29</f>
+        <v>0.24454560316783988</v>
+      </c>
+      <c r="X2" s="26">
+        <f>RepeatWeightData!Y29</f>
+        <v>0.27707349961427202</v>
+      </c>
+      <c r="Y2" s="26">
+        <f>RepeatWeightData!Z29</f>
+        <v>0.30394437059175955</v>
+      </c>
+      <c r="Z2" s="26">
+        <f>RepeatWeightData!AA29</f>
+        <v>0.31525842152964895</v>
+      </c>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>90</v>
       </c>
       <c r="B3" t="str">
-        <f>DryDownData!C30</f>
+        <f>RepeatWeightData!C30</f>
         <v>Gravel</v>
       </c>
       <c r="C3">
-        <f>DryDownData!D30</f>
+        <f>RepeatWeightData!D30</f>
         <v>5</v>
       </c>
       <c r="D3">
-        <f>DryDownData!E30</f>
+        <f>RepeatWeightData!E30</f>
         <v>1</v>
       </c>
       <c r="E3" s="26">
-        <f>DryDownData!F30</f>
+        <f>RepeatWeightData!F30</f>
         <v>3.7328272492871357E-2</v>
       </c>
       <c r="F3" s="26">
-        <f>DryDownData!G30</f>
+        <f>RepeatWeightData!G30</f>
         <v>3.2082617511870852E-2</v>
       </c>
       <c r="G3" s="26">
-        <f>DryDownData!H30</f>
+        <f>RepeatWeightData!H30</f>
         <v>2.5525548785620085E-2</v>
       </c>
       <c r="H3" s="26">
-        <f>DryDownData!I30</f>
+        <f>RepeatWeightData!I30</f>
         <v>1.4378531950993669E-2</v>
       </c>
       <c r="I3" s="26">
-        <f>DryDownData!J30</f>
+        <f>RepeatWeightData!J30</f>
         <v>9.1328769699931672E-3</v>
       </c>
       <c r="J3" s="26">
-        <f>DryDownData!K30</f>
+        <f>RepeatWeightData!K30</f>
         <v>7.1657563521178623E-3</v>
       </c>
       <c r="K3" s="26">
-        <f>DryDownData!L30</f>
+        <f>RepeatWeightData!L30</f>
         <v>5.8543426068677828E-3</v>
       </c>
       <c r="L3" s="26">
-        <f>DryDownData!M30</f>
+        <f>RepeatWeightData!M30</f>
         <v>5.1986357342427439E-3</v>
       </c>
       <c r="M3" s="26">
-        <f>DryDownData!N30</f>
+        <f>RepeatWeightData!N30</f>
         <v>3.2315151163674386E-3</v>
       </c>
       <c r="N3" s="26">
-        <f>DryDownData!O30</f>
+        <f>RepeatWeightData!O30</f>
         <v>3.2315151163674386E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="26">
+        <f>RepeatWeightData!P30</f>
+        <v>1.9201013711173597E-3</v>
+      </c>
+      <c r="P3" s="26">
+        <f>RepeatWeightData!Q30</f>
+        <v>-4.7019246757945042E-5</v>
+      </c>
+      <c r="Q3" s="26">
+        <f>RepeatWeightData!R30</f>
+        <v>-1.358432992008024E-3</v>
+      </c>
+      <c r="R3" s="26">
+        <f>RepeatWeightData!S30</f>
+        <v>6.0868762586709449E-4</v>
+      </c>
+      <c r="S3" s="26">
+        <f>RepeatWeightData!T30</f>
+        <v>9.7885838426182061E-3</v>
+      </c>
+      <c r="T3" s="26">
+        <f>RepeatWeightData!U30</f>
+        <v>1.6345652568868975E-2</v>
+      </c>
+      <c r="U3" s="26">
+        <f>RepeatWeightData!V30</f>
+        <v>1.8968480059369318E-2</v>
+      </c>
+      <c r="V3" s="26">
+        <f>RepeatWeightData!W30</f>
+        <v>2.0935600677244436E-2</v>
+      </c>
+      <c r="W3" s="26">
+        <f>RepeatWeightData!X30</f>
+        <v>2.0279893804619396E-2</v>
+      </c>
+      <c r="X3" s="26">
+        <f>RepeatWeightData!Y30</f>
+        <v>2.6836962530870166E-2</v>
+      </c>
+      <c r="Y3" s="26">
+        <f>RepeatWeightData!Z30</f>
+        <v>3.0771203766620587E-2</v>
+      </c>
+      <c r="Z3" s="26">
+        <f>RepeatWeightData!AA30</f>
+        <v>3.2082617511870852E-2</v>
+      </c>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>91</v>
       </c>
       <c r="B4" t="str">
-        <f>DryDownData!C31</f>
+        <f>RepeatWeightData!C31</f>
         <v>TopSoil_30</v>
       </c>
       <c r="C4">
-        <f>DryDownData!D31</f>
+        <f>RepeatWeightData!D31</f>
         <v>3</v>
       </c>
       <c r="D4">
-        <f>DryDownData!E31</f>
+        <f>RepeatWeightData!E31</f>
         <v>1</v>
       </c>
       <c r="E4" s="26">
-        <f>DryDownData!F31</f>
+        <f>RepeatWeightData!F31</f>
         <v>0.17690234161554824</v>
       </c>
       <c r="F4" s="26">
-        <f>DryDownData!G31</f>
+        <f>RepeatWeightData!G31</f>
         <v>0.16471132134383343</v>
       </c>
       <c r="G4" s="26">
-        <f>DryDownData!H31</f>
+        <f>RepeatWeightData!H31</f>
         <v>0.15627138423264617</v>
       </c>
       <c r="H4" s="26">
-        <f>DryDownData!I31</f>
+        <f>RepeatWeightData!I31</f>
         <v>0.13001380210895269</v>
       </c>
       <c r="I4" s="26">
-        <f>DryDownData!J31</f>
+        <f>RepeatWeightData!J31</f>
         <v>0.11782278183723788</v>
       </c>
       <c r="J4" s="26">
-        <f>DryDownData!K31</f>
+        <f>RepeatWeightData!K31</f>
         <v>0.11500946946684218</v>
       </c>
       <c r="K4" s="26">
-        <f>DryDownData!L31</f>
+        <f>RepeatWeightData!L31</f>
         <v>0.10750730314578678</v>
       </c>
       <c r="L4" s="26">
-        <f>DryDownData!M31</f>
+        <f>RepeatWeightData!M31</f>
         <v>0.10563176156552306</v>
       </c>
       <c r="M4" s="26">
-        <f>DryDownData!N31</f>
+        <f>RepeatWeightData!N31</f>
         <v>0.10188067840499537</v>
       </c>
       <c r="N4" s="26">
-        <f>DryDownData!O31</f>
+        <f>RepeatWeightData!O31</f>
         <v>9.906736603459966E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="26">
+        <f>RepeatWeightData!P31</f>
+        <v>9.6254053664203962E-2</v>
+      </c>
+      <c r="P4" s="26">
+        <f>RepeatWeightData!Q31</f>
+        <v>9.2502970503676257E-2</v>
+      </c>
+      <c r="Q4" s="26">
+        <f>RepeatWeightData!R31</f>
+        <v>7.1872013120774195E-2</v>
+      </c>
+      <c r="R4" s="26">
+        <f>RepeatWeightData!S31</f>
+        <v>7.5623096281301885E-2</v>
+      </c>
+      <c r="S4" s="26">
+        <f>RepeatWeightData!T31</f>
+        <v>9.2502970503676257E-2</v>
+      </c>
+      <c r="T4" s="26">
+        <f>RepeatWeightData!U31</f>
+        <v>0.10281844919512723</v>
+      </c>
+      <c r="U4" s="26">
+        <f>RepeatWeightData!V31</f>
+        <v>0.10469399077539107</v>
+      </c>
+      <c r="V4" s="26">
+        <f>RepeatWeightData!W31</f>
+        <v>0.10750730314578678</v>
+      </c>
+      <c r="W4" s="26">
+        <f>RepeatWeightData!X31</f>
+        <v>0.10563176156552306</v>
+      </c>
+      <c r="X4" s="26">
+        <f>RepeatWeightData!Y31</f>
+        <v>0.11688501104710589</v>
+      </c>
+      <c r="Y4" s="26">
+        <f>RepeatWeightData!Z31</f>
+        <v>0.12438717736816128</v>
+      </c>
+      <c r="Z4" s="26">
+        <f>RepeatWeightData!AA31</f>
+        <v>0.12438717736816128</v>
+      </c>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>92</v>
       </c>
       <c r="B5" t="str">
-        <f>DryDownData!C32</f>
+        <f>RepeatWeightData!C32</f>
         <v>TopSoil_50</v>
       </c>
       <c r="C5">
-        <f>DryDownData!D32</f>
+        <f>RepeatWeightData!D32</f>
         <v>4</v>
       </c>
       <c r="D5">
-        <f>DryDownData!E32</f>
+        <f>RepeatWeightData!E32</f>
         <v>1</v>
       </c>
       <c r="E5" s="26">
-        <f>DryDownData!F32</f>
+        <f>RepeatWeightData!F32</f>
         <v>5.2236643698188402E-2</v>
       </c>
       <c r="F5" s="26">
-        <f>DryDownData!G32</f>
+        <f>RepeatWeightData!G32</f>
         <v>4.6110083909552575E-2</v>
       </c>
       <c r="G5" s="26">
-        <f>DryDownData!H32</f>
+        <f>RepeatWeightData!H32</f>
         <v>4.2280984041655235E-2</v>
       </c>
       <c r="H5" s="26">
-        <f>DryDownData!I32</f>
+        <f>RepeatWeightData!I32</f>
         <v>3.6154424253019624E-2</v>
       </c>
       <c r="I5" s="26">
-        <f>DryDownData!J32</f>
+        <f>RepeatWeightData!J32</f>
         <v>3.0793684437963223E-2</v>
       </c>
       <c r="J5" s="26">
-        <f>DryDownData!K32</f>
+        <f>RepeatWeightData!K32</f>
         <v>2.9262044490804374E-2</v>
       </c>
       <c r="K5" s="26">
-        <f>DryDownData!L32</f>
+        <f>RepeatWeightData!L32</f>
         <v>2.4667124649327615E-2</v>
       </c>
       <c r="L5" s="26">
-        <f>DryDownData!M32</f>
+        <f>RepeatWeightData!M32</f>
         <v>2.3135484702168547E-2</v>
       </c>
       <c r="M5" s="26">
-        <f>DryDownData!N32</f>
+        <f>RepeatWeightData!N32</f>
         <v>2.0838024781430275E-2</v>
       </c>
       <c r="N5" s="26">
-        <f>DryDownData!O32</f>
+        <f>RepeatWeightData!O32</f>
         <v>1.8540564860691784E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="26">
+        <f>RepeatWeightData!P32</f>
+        <v>1.7008924913532938E-2</v>
+      </c>
+      <c r="P5" s="26">
+        <f>RepeatWeightData!Q32</f>
+        <v>1.5477284966373872E-2</v>
+      </c>
+      <c r="Q5" s="26">
+        <f>RepeatWeightData!R32</f>
+        <v>-6.0493447879490195E-4</v>
+      </c>
+      <c r="R5" s="26">
+        <f>RepeatWeightData!S32</f>
+        <v>-6.0493447879490195E-4</v>
+      </c>
+      <c r="S5" s="26">
+        <f>RepeatWeightData!T32</f>
+        <v>7.0532652569997734E-3</v>
+      </c>
+      <c r="T5" s="26">
+        <f>RepeatWeightData!U32</f>
+        <v>1.0882365124897111E-2</v>
+      </c>
+      <c r="U5" s="26">
+        <f>RepeatWeightData!V32</f>
+        <v>1.5477284966373872E-2</v>
+      </c>
+      <c r="V5" s="26">
+        <f>RepeatWeightData!W32</f>
+        <v>1.3945645019215025E-2</v>
+      </c>
+      <c r="W5" s="26">
+        <f>RepeatWeightData!X32</f>
+        <v>1.7774744887112361E-2</v>
+      </c>
+      <c r="X5" s="26">
+        <f>RepeatWeightData!Y32</f>
+        <v>2.2369664728589124E-2</v>
+      </c>
+      <c r="Y5" s="26">
+        <f>RepeatWeightData!Z32</f>
+        <v>2.5432944622907037E-2</v>
+      </c>
+      <c r="Z5" s="26">
+        <f>RepeatWeightData!AA32</f>
+        <v>2.8496224517224951E-2</v>
+      </c>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>93</v>
       </c>
       <c r="B6" t="str">
-        <f>DryDownData!C33</f>
+        <f>RepeatWeightData!C33</f>
         <v>SubSoil_0</v>
       </c>
       <c r="C6">
-        <f>DryDownData!D33</f>
+        <f>RepeatWeightData!D33</f>
         <v>2</v>
       </c>
       <c r="D6">
-        <f>DryDownData!E33</f>
+        <f>RepeatWeightData!E33</f>
         <v>1</v>
       </c>
       <c r="E6" s="26">
-        <f>DryDownData!F33</f>
+        <f>RepeatWeightData!F33</f>
         <v>0.29183139969396765</v>
       </c>
       <c r="F6" s="26">
-        <f>DryDownData!G33</f>
+        <f>RepeatWeightData!G33</f>
         <v>0.27503983037385538</v>
       </c>
       <c r="G6" s="26">
-        <f>DryDownData!H33</f>
+        <f>RepeatWeightData!H33</f>
         <v>0.26384545082711391</v>
       </c>
       <c r="H6" s="26">
-        <f>DryDownData!I33</f>
+        <f>RepeatWeightData!I33</f>
         <v>0.22914287423221522</v>
       </c>
       <c r="I6" s="26">
-        <f>DryDownData!J33</f>
+        <f>RepeatWeightData!J33</f>
         <v>0.196679173546665</v>
       </c>
       <c r="J6" s="26">
-        <f>DryDownData!K33</f>
+        <f>RepeatWeightData!K33</f>
         <v>0.17876816627187853</v>
       </c>
       <c r="K6" s="26">
-        <f>DryDownData!L33</f>
+        <f>RepeatWeightData!L33</f>
         <v>0.14854334149567647</v>
       </c>
       <c r="L6" s="26">
-        <f>DryDownData!M33</f>
+        <f>RepeatWeightData!M33</f>
         <v>0.13511008603958682</v>
       </c>
       <c r="M6" s="26">
-        <f>DryDownData!N33</f>
+        <f>RepeatWeightData!N33</f>
         <v>0.12503514444751943</v>
       </c>
       <c r="N6" s="26">
-        <f>DryDownData!O33</f>
+        <f>RepeatWeightData!O33</f>
         <v>0.11719907876480035</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="26">
+        <f>RepeatWeightData!P33</f>
+        <v>0.1116018889914296</v>
+      </c>
+      <c r="P6" s="26">
+        <f>RepeatWeightData!Q33</f>
+        <v>0.10600469921805886</v>
+      </c>
+      <c r="Q6" s="26">
+        <f>RepeatWeightData!R33</f>
+        <v>0.10264638535403645</v>
+      </c>
+      <c r="R6" s="26">
+        <f>RepeatWeightData!S33</f>
+        <v>0.12055739262882276</v>
+      </c>
+      <c r="S6" s="26">
+        <f>RepeatWeightData!T33</f>
+        <v>0.13846839990360924</v>
+      </c>
+      <c r="T6" s="26">
+        <f>RepeatWeightData!U33</f>
+        <v>0.14854334149567647</v>
+      </c>
+      <c r="U6" s="26">
+        <f>RepeatWeightData!V33</f>
+        <v>0.16869322467981127</v>
+      </c>
+      <c r="V6" s="26">
+        <f>RepeatWeightData!W33</f>
+        <v>0.18884310786394592</v>
+      </c>
+      <c r="W6" s="26">
+        <f>RepeatWeightData!X33</f>
+        <v>0.20115692536536151</v>
+      </c>
+      <c r="X6" s="26">
+        <f>RepeatWeightData!Y33</f>
+        <v>0.23026231218688945</v>
+      </c>
+      <c r="Y6" s="26">
+        <f>RepeatWeightData!Z33</f>
+        <v>0.25712882309906893</v>
+      </c>
+      <c r="Z6" s="26">
+        <f>RepeatWeightData!AA33</f>
+        <v>0.2660843267364621</v>
+      </c>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>94</v>
       </c>
       <c r="B7" t="str">
-        <f>DryDownData!C34</f>
+        <f>RepeatWeightData!C34</f>
         <v>TopSoil_50</v>
       </c>
       <c r="C7">
-        <f>DryDownData!D34</f>
+        <f>RepeatWeightData!D34</f>
         <v>4</v>
       </c>
       <c r="D7">
-        <f>DryDownData!E34</f>
+        <f>RepeatWeightData!E34</f>
         <v>2</v>
       </c>
       <c r="E7" s="26">
-        <f>DryDownData!F34</f>
+        <f>RepeatWeightData!F34</f>
         <v>9.3590922271479693E-2</v>
       </c>
       <c r="F7" s="26">
-        <f>DryDownData!G34</f>
+        <f>RepeatWeightData!G34</f>
         <v>8.5932722535685013E-2</v>
       </c>
       <c r="G7" s="26">
-        <f>DryDownData!H34</f>
+        <f>RepeatWeightData!H34</f>
         <v>8.28694426413671E-2</v>
       </c>
       <c r="H7" s="26">
-        <f>DryDownData!I34</f>
+        <f>RepeatWeightData!I34</f>
         <v>7.6742882852731273E-2</v>
       </c>
       <c r="I7" s="26">
-        <f>DryDownData!J34</f>
+        <f>RepeatWeightData!J34</f>
         <v>7.2147963011254507E-2</v>
       </c>
       <c r="J7" s="26">
-        <f>DryDownData!K34</f>
+        <f>RepeatWeightData!K34</f>
         <v>6.985050309051602E-2</v>
       </c>
       <c r="K7" s="26">
-        <f>DryDownData!L34</f>
+        <f>RepeatWeightData!L34</f>
         <v>6.5255583249039253E-2</v>
       </c>
       <c r="L7" s="26">
-        <f>DryDownData!M34</f>
+        <f>RepeatWeightData!M34</f>
         <v>6.3723943301880415E-2</v>
       </c>
       <c r="M7" s="26">
-        <f>DryDownData!N34</f>
+        <f>RepeatWeightData!N34</f>
         <v>6.1426483381141921E-2</v>
       </c>
       <c r="N7" s="26">
-        <f>DryDownData!O34</f>
+        <f>RepeatWeightData!O34</f>
         <v>5.8363203486824007E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="26">
+        <f>RepeatWeightData!P34</f>
+        <v>5.7597383513244588E-2</v>
+      </c>
+      <c r="P7" s="26">
+        <f>RepeatWeightData!Q34</f>
+        <v>5.4534103618926674E-2</v>
+      </c>
+      <c r="Q7" s="26">
+        <f>RepeatWeightData!R34</f>
+        <v>3.9983524120916963E-2</v>
+      </c>
+      <c r="R7" s="26">
+        <f>RepeatWeightData!S34</f>
+        <v>3.9983524120916963E-2</v>
+      </c>
+      <c r="S7" s="26">
+        <f>RepeatWeightData!T34</f>
+        <v>4.8407543830291062E-2</v>
+      </c>
+      <c r="T7" s="26">
+        <f>RepeatWeightData!U34</f>
+        <v>5.1470823724608976E-2</v>
+      </c>
+      <c r="U7" s="26">
+        <f>RepeatWeightData!V34</f>
+        <v>5.6831563539665161E-2</v>
+      </c>
+      <c r="V7" s="26">
+        <f>RepeatWeightData!W34</f>
+        <v>5.6065743566085735E-2</v>
+      </c>
+      <c r="W7" s="26">
+        <f>RepeatWeightData!X34</f>
+        <v>6.0660663407562501E-2</v>
+      </c>
+      <c r="X7" s="26">
+        <f>RepeatWeightData!Y34</f>
+        <v>6.5255583249039253E-2</v>
+      </c>
+      <c r="Y7" s="26">
+        <f>RepeatWeightData!Z34</f>
+        <v>6.6787223196198328E-2</v>
+      </c>
+      <c r="Z7" s="26">
+        <f>RepeatWeightData!AA34</f>
+        <v>7.0616323064095668E-2</v>
+      </c>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>95</v>
       </c>
       <c r="B8" t="str">
-        <f>DryDownData!C35</f>
+        <f>RepeatWeightData!C35</f>
         <v>SubSoil_0</v>
       </c>
       <c r="C8">
-        <f>DryDownData!D35</f>
+        <f>RepeatWeightData!D35</f>
         <v>2</v>
       </c>
       <c r="D8">
-        <f>DryDownData!E35</f>
+        <f>RepeatWeightData!E35</f>
         <v>2</v>
       </c>
       <c r="E8" s="26">
-        <f>DryDownData!F35</f>
+        <f>RepeatWeightData!F35</f>
         <v>0.22010785895598103</v>
       </c>
       <c r="F8" s="26">
-        <f>DryDownData!G35</f>
+        <f>RepeatWeightData!G35</f>
         <v>0.20619434828367603</v>
       </c>
       <c r="G8" s="26">
-        <f>DryDownData!H35</f>
+        <f>RepeatWeightData!H35</f>
         <v>0.19442137771480242</v>
       </c>
       <c r="H8" s="26">
-        <f>DryDownData!I35</f>
+        <f>RepeatWeightData!I35</f>
         <v>0.15910246600818195</v>
       </c>
       <c r="I8" s="26">
-        <f>DryDownData!J35</f>
+        <f>RepeatWeightData!J35</f>
         <v>0.12913490456014035</v>
       </c>
       <c r="J8" s="26">
-        <f>DryDownData!K35</f>
+        <f>RepeatWeightData!K35</f>
         <v>0.11308085378440375</v>
       </c>
       <c r="K8" s="26">
-        <f>DryDownData!L35</f>
+        <f>RepeatWeightData!L35</f>
         <v>8.9534912646656722E-2</v>
       </c>
       <c r="L8" s="26">
-        <f>DryDownData!M35</f>
+        <f>RepeatWeightData!M35</f>
         <v>7.9902482181214859E-2</v>
       </c>
       <c r="M8" s="26">
-        <f>DryDownData!N35</f>
+        <f>RepeatWeightData!N35</f>
         <v>7.1340321767488543E-2</v>
       </c>
       <c r="N8" s="26">
-        <f>DryDownData!O35</f>
+        <f>RepeatWeightData!O35</f>
         <v>6.2778161353762393E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="26">
+        <f>RepeatWeightData!P35</f>
+        <v>5.9567351198615108E-2</v>
+      </c>
+      <c r="P8" s="26">
+        <f>RepeatWeightData!Q35</f>
+        <v>5.4216000940036244E-2</v>
+      </c>
+      <c r="Q8" s="26">
+        <f>RepeatWeightData!R35</f>
+        <v>5.314573088832053E-2</v>
+      </c>
+      <c r="R8" s="26">
+        <f>RepeatWeightData!S35</f>
+        <v>7.3480861870920122E-2</v>
+      </c>
+      <c r="S8" s="26">
+        <f>RepeatWeightData!T35</f>
+        <v>9.3815992853519867E-2</v>
+      </c>
+      <c r="T8" s="26">
+        <f>RepeatWeightData!U35</f>
+        <v>0.10344842331896173</v>
+      </c>
+      <c r="U8" s="26">
+        <f>RepeatWeightData!V35</f>
+        <v>0.12271328424984576</v>
+      </c>
+      <c r="V8" s="26">
+        <f>RepeatWeightData!W35</f>
+        <v>0.14197814518072965</v>
+      </c>
+      <c r="W8" s="26">
+        <f>RepeatWeightData!X35</f>
+        <v>0.15482138580131896</v>
+      </c>
+      <c r="X8" s="26">
+        <f>RepeatWeightData!Y35</f>
+        <v>0.18264840714592898</v>
+      </c>
+      <c r="Y8" s="26">
+        <f>RepeatWeightData!Z35</f>
+        <v>0.20619434828367603</v>
+      </c>
+      <c r="Z8" s="26">
+        <f>RepeatWeightData!AA35</f>
+        <v>0.21261596859397058</v>
+      </c>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>96</v>
       </c>
       <c r="B9" t="str">
-        <f>DryDownData!C36</f>
+        <f>RepeatWeightData!C36</f>
         <v>TopSoil_0</v>
       </c>
       <c r="C9">
-        <f>DryDownData!D36</f>
+        <f>RepeatWeightData!D36</f>
         <v>1</v>
       </c>
       <c r="D9">
-        <f>DryDownData!E36</f>
+        <f>RepeatWeightData!E36</f>
         <v>2</v>
       </c>
       <c r="E9" s="26">
-        <f>DryDownData!F36</f>
+        <f>RepeatWeightData!F36</f>
         <v>0.38455698352422191</v>
       </c>
       <c r="F9" s="26">
-        <f>DryDownData!G36</f>
+        <f>RepeatWeightData!G36</f>
         <v>0.36475739438291532</v>
       </c>
       <c r="G9" s="26">
-        <f>DryDownData!H36</f>
+        <f>RepeatWeightData!H36</f>
         <v>0.34778631797608112</v>
       </c>
       <c r="H9" s="26">
-        <f>DryDownData!I36</f>
+        <f>RepeatWeightData!I36</f>
         <v>0.30253011422452325</v>
       </c>
       <c r="I9" s="26">
-        <f>DryDownData!J36</f>
+        <f>RepeatWeightData!J36</f>
         <v>0.26151667957467406</v>
       </c>
       <c r="J9" s="26">
-        <f>DryDownData!K36</f>
+        <f>RepeatWeightData!K36</f>
         <v>0.24313134680060378</v>
       </c>
       <c r="K9" s="26">
-        <f>DryDownData!L36</f>
+        <f>RepeatWeightData!L36</f>
         <v>0.21626047582311622</v>
       </c>
       <c r="L9" s="26">
-        <f>DryDownData!M36</f>
+        <f>RepeatWeightData!M36</f>
         <v>0.20494642488522682</v>
       </c>
       <c r="M9" s="26">
-        <f>DryDownData!N36</f>
+        <f>RepeatWeightData!N36</f>
         <v>0.1936323739473374</v>
       </c>
       <c r="N9" s="26">
-        <f>DryDownData!O36</f>
+        <f>RepeatWeightData!O36</f>
         <v>0.18373257937668411</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="26">
+        <f>RepeatWeightData!P36</f>
+        <v>0.17666129754050319</v>
+      </c>
+      <c r="P9" s="26">
+        <f>RepeatWeightData!Q36</f>
+        <v>0.16817575933708598</v>
+      </c>
+      <c r="Q9" s="26">
+        <f>RepeatWeightData!R36</f>
+        <v>0.13847637562512624</v>
+      </c>
+      <c r="R9" s="26">
+        <f>RepeatWeightData!S36</f>
+        <v>0.16110447750090506</v>
+      </c>
+      <c r="S9" s="26">
+        <f>RepeatWeightData!T36</f>
+        <v>0.18373257937668411</v>
+      </c>
+      <c r="T9" s="26">
+        <f>RepeatWeightData!U36</f>
+        <v>0.19646088668180961</v>
+      </c>
+      <c r="U9" s="26">
+        <f>RepeatWeightData!V36</f>
+        <v>0.21908898855758863</v>
+      </c>
+      <c r="V9" s="26">
+        <f>RepeatWeightData!W36</f>
+        <v>0.24171709043336748</v>
+      </c>
+      <c r="W9" s="26">
+        <f>RepeatWeightData!X36</f>
+        <v>0.25444539773849317</v>
+      </c>
+      <c r="X9" s="26">
+        <f>RepeatWeightData!Y36</f>
+        <v>0.28980180691939772</v>
+      </c>
+      <c r="Y9" s="26">
+        <f>RepeatWeightData!Z36</f>
+        <v>0.31667267789688508</v>
+      </c>
+      <c r="Z9" s="26">
+        <f>RepeatWeightData!AA36</f>
+        <v>0.32940098520201078</v>
+      </c>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>97</v>
       </c>
       <c r="B10" t="str">
-        <f>DryDownData!C37</f>
+        <f>RepeatWeightData!C37</f>
         <v>Gravel</v>
       </c>
       <c r="C10">
-        <f>DryDownData!D37</f>
+        <f>RepeatWeightData!D37</f>
         <v>5</v>
       </c>
       <c r="D10">
-        <f>DryDownData!E37</f>
+        <f>RepeatWeightData!E37</f>
         <v>2</v>
       </c>
       <c r="E10" s="26">
-        <f>DryDownData!F37</f>
+        <f>RepeatWeightData!F37</f>
         <v>3.1426910639245811E-2</v>
       </c>
       <c r="F10" s="26">
-        <f>DryDownData!G37</f>
+        <f>RepeatWeightData!G37</f>
         <v>2.4869841912995048E-2</v>
       </c>
       <c r="G10" s="26">
-        <f>DryDownData!H37</f>
+        <f>RepeatWeightData!H37</f>
         <v>2.0279893804619396E-2</v>
       </c>
       <c r="H10" s="26">
-        <f>DryDownData!I37</f>
+        <f>RepeatWeightData!I37</f>
         <v>6.5100494794928226E-3</v>
       </c>
       <c r="I10" s="26">
-        <f>DryDownData!J37</f>
+        <f>RepeatWeightData!J37</f>
         <v>2.5758082437423993E-3</v>
       </c>
       <c r="J10" s="26">
-        <f>DryDownData!K37</f>
+        <f>RepeatWeightData!K37</f>
         <v>6.0868762586709449E-4</v>
       </c>
       <c r="K10" s="26">
-        <f>DryDownData!L37</f>
+        <f>RepeatWeightData!L37</f>
         <v>-7.0272611938298449E-4</v>
       </c>
       <c r="L10" s="26">
-        <f>DryDownData!M37</f>
+        <f>RepeatWeightData!M37</f>
         <v>-2.0141398646332498E-3</v>
       </c>
       <c r="M10" s="26">
-        <f>DryDownData!N37</f>
+        <f>RepeatWeightData!N37</f>
         <v>-2.6698467372582892E-3</v>
       </c>
       <c r="N10" s="26">
-        <f>DryDownData!O37</f>
+        <f>RepeatWeightData!O37</f>
         <v>-3.3255536098833289E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="26">
+        <f>RepeatWeightData!P37</f>
+        <v>-4.6369673551334076E-3</v>
+      </c>
+      <c r="P10" s="26">
+        <f>RepeatWeightData!Q37</f>
+        <v>-4.6369673551334076E-3</v>
+      </c>
+      <c r="Q10" s="26">
+        <f>RepeatWeightData!R37</f>
+        <v>-6.6040879730087125E-3</v>
+      </c>
+      <c r="R10" s="26">
+        <f>RepeatWeightData!S37</f>
+        <v>-3.9812604825083687E-3</v>
+      </c>
+      <c r="S10" s="26">
+        <f>RepeatWeightData!T37</f>
+        <v>6.5100494794928226E-3</v>
+      </c>
+      <c r="T10" s="26">
+        <f>RepeatWeightData!U37</f>
+        <v>1.306711820574359E-2</v>
+      </c>
+      <c r="U10" s="26">
+        <f>RepeatWeightData!V37</f>
+        <v>1.5689945696243934E-2</v>
+      </c>
+      <c r="V10" s="26">
+        <f>RepeatWeightData!W37</f>
+        <v>1.8312773186744277E-2</v>
+      </c>
+      <c r="W10" s="26">
+        <f>RepeatWeightData!X37</f>
+        <v>1.8968480059369318E-2</v>
+      </c>
+      <c r="X10" s="26">
+        <f>RepeatWeightData!Y37</f>
+        <v>2.4869841912995048E-2</v>
+      </c>
+      <c r="Y10" s="26">
+        <f>RepeatWeightData!Z37</f>
+        <v>2.9459790021370509E-2</v>
+      </c>
+      <c r="Z10" s="26">
+        <f>RepeatWeightData!AA37</f>
+        <v>3.1426910639245811E-2</v>
+      </c>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>98</v>
       </c>
       <c r="B11" t="str">
-        <f>DryDownData!C38</f>
+        <f>RepeatWeightData!C38</f>
         <v>TopSoil_30</v>
       </c>
       <c r="C11">
-        <f>DryDownData!D38</f>
+        <f>RepeatWeightData!D38</f>
         <v>3</v>
       </c>
       <c r="D11">
-        <f>DryDownData!E38</f>
+        <f>RepeatWeightData!E38</f>
         <v>2</v>
       </c>
       <c r="E11" s="26">
-        <f>DryDownData!F38</f>
+        <f>RepeatWeightData!F38</f>
         <v>0.16189800897343773</v>
       </c>
       <c r="F11" s="26">
-        <f>DryDownData!G38</f>
+        <f>RepeatWeightData!G38</f>
         <v>0.14876921791159092</v>
       </c>
       <c r="G11" s="26">
-        <f>DryDownData!H38</f>
+        <f>RepeatWeightData!H38</f>
         <v>0.15908469660304189</v>
       </c>
       <c r="H11" s="26">
-        <f>DryDownData!I38</f>
+        <f>RepeatWeightData!I38</f>
         <v>0.12532494815829315</v>
       </c>
       <c r="I11" s="26">
-        <f>DryDownData!J38</f>
+        <f>RepeatWeightData!J38</f>
         <v>0.11782278183723788</v>
       </c>
       <c r="J11" s="26">
-        <f>DryDownData!K38</f>
+        <f>RepeatWeightData!K38</f>
         <v>0.11688501104710589</v>
       </c>
       <c r="K11" s="26">
-        <f>DryDownData!L38</f>
+        <f>RepeatWeightData!L38</f>
         <v>0.10938284472605063</v>
       </c>
       <c r="L11" s="26">
-        <f>DryDownData!M38</f>
+        <f>RepeatWeightData!M38</f>
         <v>0.10656953235565493</v>
       </c>
       <c r="M11" s="26">
-        <f>DryDownData!N38</f>
+        <f>RepeatWeightData!N38</f>
         <v>0.10469399077539107</v>
       </c>
       <c r="N11" s="26">
-        <f>DryDownData!O38</f>
+        <f>RepeatWeightData!O38</f>
         <v>0.10094290761486351</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="26">
+        <f>RepeatWeightData!P38</f>
+        <v>0.10000513682473151</v>
+      </c>
+      <c r="P11" s="26">
+        <f>RepeatWeightData!Q38</f>
+        <v>9.7191824454335815E-2</v>
+      </c>
+      <c r="Q11" s="26">
+        <f>RepeatWeightData!R38</f>
+        <v>7.6560867071433752E-2</v>
+      </c>
+      <c r="R11" s="26">
+        <f>RepeatWeightData!S38</f>
+        <v>8.0311950231961443E-2</v>
+      </c>
+      <c r="S11" s="26">
+        <f>RepeatWeightData!T38</f>
+        <v>9.906736603459966E-2</v>
+      </c>
+      <c r="T11" s="26">
+        <f>RepeatWeightData!U38</f>
+        <v>0.10844507393591878</v>
+      </c>
+      <c r="U11" s="26">
+        <f>RepeatWeightData!V38</f>
+        <v>0.11032061551618262</v>
+      </c>
+      <c r="V11" s="26">
+        <f>RepeatWeightData!W38</f>
+        <v>0.11313392788657833</v>
+      </c>
+      <c r="W11" s="26">
+        <f>RepeatWeightData!X38</f>
+        <v>0.11219615709644634</v>
+      </c>
+      <c r="X11" s="26">
+        <f>RepeatWeightData!Y38</f>
+        <v>0.12344940657802929</v>
+      </c>
+      <c r="Y11" s="26">
+        <f>RepeatWeightData!Z38</f>
+        <v>0.13001380210895269</v>
+      </c>
+      <c r="Z11" s="26">
+        <f>RepeatWeightData!AA38</f>
+        <v>0.13188934368921654</v>
+      </c>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>99</v>
       </c>
       <c r="B12" t="str">
-        <f>DryDownData!C39</f>
+        <f>RepeatWeightData!C39</f>
         <v>Gravel</v>
       </c>
       <c r="C12">
-        <f>DryDownData!D39</f>
+        <f>RepeatWeightData!D39</f>
         <v>5</v>
       </c>
       <c r="D12">
-        <f>DryDownData!E39</f>
+        <f>RepeatWeightData!E39</f>
         <v>3</v>
       </c>
       <c r="E12" s="26">
-        <f>DryDownData!F39</f>
+        <f>RepeatWeightData!F39</f>
         <v>4.847528932749777E-2</v>
       </c>
       <c r="F12" s="26">
-        <f>DryDownData!G39</f>
+        <f>RepeatWeightData!G39</f>
         <v>4.0606806855996741E-2</v>
       </c>
       <c r="G12" s="26">
-        <f>DryDownData!H39</f>
+        <f>RepeatWeightData!H39</f>
         <v>3.6016858747621276E-2</v>
       </c>
       <c r="H12" s="26">
-        <f>DryDownData!I39</f>
+        <f>RepeatWeightData!I39</f>
         <v>2.2247014422494701E-2</v>
       </c>
       <c r="I12" s="26">
-        <f>DryDownData!J39</f>
+        <f>RepeatWeightData!J39</f>
         <v>1.8312773186744277E-2</v>
       </c>
       <c r="J12" s="26">
-        <f>DryDownData!K39</f>
+        <f>RepeatWeightData!K39</f>
         <v>1.7001359441494012E-2</v>
       </c>
       <c r="K12" s="26">
-        <f>DryDownData!L39</f>
+        <f>RepeatWeightData!L39</f>
         <v>1.5034238823618895E-2</v>
       </c>
       <c r="L12" s="26">
-        <f>DryDownData!M39</f>
+        <f>RepeatWeightData!M39</f>
         <v>1.5034238823618895E-2</v>
       </c>
       <c r="M12" s="26">
-        <f>DryDownData!N39</f>
+        <f>RepeatWeightData!N39</f>
         <v>1.306711820574359E-2</v>
       </c>
       <c r="N12" s="26">
-        <f>DryDownData!O39</f>
+        <f>RepeatWeightData!O39</f>
         <v>1.2411411333118551E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="26">
+        <f>RepeatWeightData!P39</f>
+        <v>1.2411411333118551E-2</v>
+      </c>
+      <c r="P12" s="26">
+        <f>RepeatWeightData!Q39</f>
+        <v>1.1099997587868286E-2</v>
+      </c>
+      <c r="Q12" s="26">
+        <f>RepeatWeightData!R39</f>
+        <v>9.7885838426182061E-3</v>
+      </c>
+      <c r="R12" s="26">
+        <f>RepeatWeightData!S39</f>
+        <v>1.1755704460493512E-2</v>
+      </c>
+      <c r="S12" s="26">
+        <f>RepeatWeightData!T39</f>
+        <v>2.2247014422494701E-2</v>
+      </c>
+      <c r="T12" s="26">
+        <f>RepeatWeightData!U39</f>
+        <v>2.9459790021370509E-2</v>
+      </c>
+      <c r="U12" s="26">
+        <f>RepeatWeightData!V39</f>
+        <v>3.1426910639245811E-2</v>
+      </c>
+      <c r="V12" s="26">
+        <f>RepeatWeightData!W39</f>
+        <v>3.4705445002371195E-2</v>
+      </c>
+      <c r="W12" s="26">
+        <f>RepeatWeightData!X39</f>
+        <v>3.4705445002371195E-2</v>
+      </c>
+      <c r="X12" s="26">
+        <f>RepeatWeightData!Y39</f>
+        <v>4.0606806855996741E-2</v>
+      </c>
+      <c r="Y12" s="26">
+        <f>RepeatWeightData!Z39</f>
+        <v>4.5196754964372386E-2</v>
+      </c>
+      <c r="Z12" s="26">
+        <f>RepeatWeightData!AA39</f>
+        <v>4.6508168709622467E-2</v>
+      </c>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>100</v>
       </c>
       <c r="B13" t="str">
-        <f>DryDownData!C40</f>
+        <f>RepeatWeightData!C40</f>
         <v>TopSoil_50</v>
       </c>
       <c r="C13">
-        <f>DryDownData!D40</f>
+        <f>RepeatWeightData!D40</f>
         <v>4</v>
       </c>
       <c r="D13">
-        <f>DryDownData!E40</f>
+        <f>RepeatWeightData!E40</f>
         <v>3</v>
       </c>
       <c r="E13" s="26">
-        <f>DryDownData!F40</f>
+        <f>RepeatWeightData!F40</f>
         <v>9.0527642377161779E-2</v>
       </c>
       <c r="F13" s="26">
-        <f>DryDownData!G40</f>
+        <f>RepeatWeightData!G40</f>
         <v>8.3635262614946526E-2</v>
       </c>
       <c r="G13" s="26">
-        <f>DryDownData!H40</f>
+        <f>RepeatWeightData!H40</f>
         <v>8.0571982720628613E-2</v>
       </c>
       <c r="H13" s="26">
-        <f>DryDownData!I40</f>
+        <f>RepeatWeightData!I40</f>
         <v>7.521124290557242E-2</v>
       </c>
       <c r="I13" s="26">
-        <f>DryDownData!J40</f>
+        <f>RepeatWeightData!J40</f>
         <v>7.1382143037675094E-2</v>
       </c>
       <c r="J13" s="26">
-        <f>DryDownData!K40</f>
+        <f>RepeatWeightData!K40</f>
         <v>6.985050309051602E-2</v>
       </c>
       <c r="K13" s="26">
-        <f>DryDownData!L40</f>
+        <f>RepeatWeightData!L40</f>
         <v>6.602140322261868E-2</v>
       </c>
       <c r="L13" s="26">
-        <f>DryDownData!M40</f>
+        <f>RepeatWeightData!M40</f>
         <v>6.4489763275459841E-2</v>
       </c>
       <c r="M13" s="26">
-        <f>DryDownData!N40</f>
+        <f>RepeatWeightData!N40</f>
         <v>6.2192303354721347E-2</v>
       </c>
       <c r="N13" s="26">
-        <f>DryDownData!O40</f>
+        <f>RepeatWeightData!O40</f>
         <v>5.9894843433983075E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="26">
+        <f>RepeatWeightData!P40</f>
+        <v>5.8363203486824007E-2</v>
+      </c>
+      <c r="P13" s="26">
+        <f>RepeatWeightData!Q40</f>
+        <v>5.6831563539665161E-2</v>
+      </c>
+      <c r="Q13" s="26">
+        <f>RepeatWeightData!R40</f>
+        <v>4.074934409449639E-2</v>
+      </c>
+      <c r="R13" s="26">
+        <f>RepeatWeightData!S40</f>
+        <v>4.1515164068075809E-2</v>
+      </c>
+      <c r="S13" s="26">
+        <f>RepeatWeightData!T40</f>
+        <v>4.9939183777449908E-2</v>
+      </c>
+      <c r="T13" s="26">
+        <f>RepeatWeightData!U40</f>
+        <v>5.3002463671767822E-2</v>
+      </c>
+      <c r="U13" s="26">
+        <f>RepeatWeightData!V40</f>
+        <v>5.8363203486824007E-2</v>
+      </c>
+      <c r="V13" s="26">
+        <f>RepeatWeightData!W40</f>
+        <v>5.9129023460403649E-2</v>
+      </c>
+      <c r="W13" s="26">
+        <f>RepeatWeightData!X40</f>
+        <v>6.1426483381141921E-2</v>
+      </c>
+      <c r="X13" s="26">
+        <f>RepeatWeightData!Y40</f>
+        <v>6.6787223196198328E-2</v>
+      </c>
+      <c r="Y13" s="26">
+        <f>RepeatWeightData!Z40</f>
+        <v>6.985050309051602E-2</v>
+      </c>
+      <c r="Z13" s="26">
+        <f>RepeatWeightData!AA40</f>
+        <v>7.3679602958413359E-2</v>
+      </c>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>101</v>
       </c>
       <c r="B14" t="str">
-        <f>DryDownData!C41</f>
+        <f>RepeatWeightData!C41</f>
         <v>TopSoil_30</v>
       </c>
       <c r="C14">
-        <f>DryDownData!D41</f>
+        <f>RepeatWeightData!D41</f>
         <v>3</v>
       </c>
       <c r="D14">
-        <f>DryDownData!E41</f>
+        <f>RepeatWeightData!E41</f>
         <v>3</v>
       </c>
       <c r="E14" s="26">
-        <f>DryDownData!F41</f>
+        <f>RepeatWeightData!F41</f>
         <v>0.14783144712145907</v>
       </c>
       <c r="F14" s="26">
-        <f>DryDownData!G41</f>
+        <f>RepeatWeightData!G41</f>
         <v>0.14032928080040366</v>
       </c>
       <c r="G14" s="26">
-        <f>DryDownData!H41</f>
+        <f>RepeatWeightData!H41</f>
         <v>0.15252030107211861</v>
       </c>
       <c r="H14" s="26">
-        <f>DryDownData!I41</f>
+        <f>RepeatWeightData!I41</f>
         <v>0.12251163578789744</v>
       </c>
       <c r="I14" s="26">
-        <f>DryDownData!J41</f>
+        <f>RepeatWeightData!J41</f>
         <v>0.11407169867671019</v>
       </c>
       <c r="J14" s="26">
-        <f>DryDownData!K41</f>
+        <f>RepeatWeightData!K41</f>
         <v>0.11032061551618262</v>
       </c>
       <c r="K14" s="26">
-        <f>DryDownData!L41</f>
+        <f>RepeatWeightData!L41</f>
         <v>0.10281844919512723</v>
       </c>
       <c r="L14" s="26">
-        <f>DryDownData!M41</f>
+        <f>RepeatWeightData!M41</f>
         <v>0.10000513682473151</v>
       </c>
       <c r="M14" s="26">
-        <f>DryDownData!N41</f>
+        <f>RepeatWeightData!N41</f>
         <v>9.531628287407197E-2</v>
       </c>
       <c r="N14" s="26">
-        <f>DryDownData!O41</f>
+        <f>RepeatWeightData!O41</f>
         <v>9.2502970503676257E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="26">
+        <f>RepeatWeightData!P41</f>
+        <v>9.0627428923412412E-2</v>
+      </c>
+      <c r="P14" s="26">
+        <f>RepeatWeightData!Q41</f>
+        <v>8.6876345762884846E-2</v>
+      </c>
+      <c r="Q14" s="26">
+        <f>RepeatWeightData!R41</f>
+        <v>6.5307617589850792E-2</v>
+      </c>
+      <c r="R14" s="26">
+        <f>RepeatWeightData!S41</f>
+        <v>6.9058700750378482E-2</v>
+      </c>
+      <c r="S14" s="26">
+        <f>RepeatWeightData!T41</f>
+        <v>8.6876345762884846E-2</v>
+      </c>
+      <c r="T14" s="26">
+        <f>RepeatWeightData!U41</f>
+        <v>9.906736603459966E-2</v>
+      </c>
+      <c r="U14" s="26">
+        <f>RepeatWeightData!V41</f>
+        <v>0.10281844919512723</v>
+      </c>
+      <c r="V14" s="26">
+        <f>RepeatWeightData!W41</f>
+        <v>0.10750730314578678</v>
+      </c>
+      <c r="W14" s="26">
+        <f>RepeatWeightData!X41</f>
+        <v>0.10750730314578678</v>
+      </c>
+      <c r="X14" s="26">
+        <f>RepeatWeightData!Y41</f>
+        <v>0.11782278183723788</v>
+      </c>
+      <c r="Y14" s="26">
+        <f>RepeatWeightData!Z41</f>
+        <v>0.12532494815829315</v>
+      </c>
+      <c r="Z14" s="26">
+        <f>RepeatWeightData!AA41</f>
+        <v>0.126262718948425</v>
+      </c>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>102</v>
       </c>
       <c r="B15" t="str">
-        <f>DryDownData!C42</f>
+        <f>RepeatWeightData!C42</f>
         <v>SubSoil_0</v>
       </c>
       <c r="C15">
-        <f>DryDownData!D42</f>
+        <f>RepeatWeightData!D42</f>
         <v>2</v>
       </c>
       <c r="D15">
-        <f>DryDownData!E42</f>
+        <f>RepeatWeightData!E42</f>
         <v>3</v>
       </c>
       <c r="E15" s="26">
-        <f>DryDownData!F42</f>
+        <f>RepeatWeightData!F42</f>
         <v>0.22759974931799148</v>
       </c>
       <c r="F15" s="26">
-        <f>DryDownData!G42</f>
+        <f>RepeatWeightData!G42</f>
         <v>0.21261596859397058</v>
       </c>
       <c r="G15" s="26">
-        <f>DryDownData!H42</f>
+        <f>RepeatWeightData!H42</f>
         <v>0.20084299802509714</v>
       </c>
       <c r="H15" s="26">
-        <f>DryDownData!I42</f>
+        <f>RepeatWeightData!I42</f>
         <v>0.1665943563701924</v>
       </c>
       <c r="I15" s="26">
-        <f>DryDownData!J42</f>
+        <f>RepeatWeightData!J42</f>
         <v>0.1344862548187192</v>
       </c>
       <c r="J15" s="26">
-        <f>DryDownData!K42</f>
+        <f>RepeatWeightData!K42</f>
         <v>0.11843220404298262</v>
       </c>
       <c r="K15" s="26">
-        <f>DryDownData!L42</f>
+        <f>RepeatWeightData!L42</f>
         <v>9.2745722801804001E-2</v>
       </c>
       <c r="L15" s="26">
-        <f>DryDownData!M42</f>
+        <f>RepeatWeightData!M42</f>
         <v>8.3113292336362138E-2</v>
       </c>
       <c r="M15" s="26">
-        <f>DryDownData!N42</f>
+        <f>RepeatWeightData!N42</f>
         <v>7.3480861870920122E-2</v>
       </c>
       <c r="N15" s="26">
-        <f>DryDownData!O42</f>
+        <f>RepeatWeightData!O42</f>
         <v>6.4918701457193972E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="26">
+        <f>RepeatWeightData!P42</f>
+        <v>6.0637621250330821E-2</v>
+      </c>
+      <c r="P15" s="26">
+        <f>RepeatWeightData!Q42</f>
+        <v>5.6356541043467823E-2</v>
+      </c>
+      <c r="Q15" s="26">
+        <f>RepeatWeightData!R42</f>
+        <v>5.314573088832053E-2</v>
+      </c>
+      <c r="R15" s="26">
+        <f>RepeatWeightData!S42</f>
+        <v>7.3480861870920122E-2</v>
+      </c>
+      <c r="S15" s="26">
+        <f>RepeatWeightData!T42</f>
+        <v>9.5956532956951446E-2</v>
+      </c>
+      <c r="T15" s="26">
+        <f>RepeatWeightData!U42</f>
+        <v>0.11094031368097218</v>
+      </c>
+      <c r="U15" s="26">
+        <f>RepeatWeightData!V42</f>
+        <v>0.13127544466357191</v>
+      </c>
+      <c r="V15" s="26">
+        <f>RepeatWeightData!W42</f>
+        <v>0.1537511157496031</v>
+      </c>
+      <c r="W15" s="26">
+        <f>RepeatWeightData!X42</f>
+        <v>0.16980516652533967</v>
+      </c>
+      <c r="X15" s="26">
+        <f>RepeatWeightData!Y42</f>
+        <v>0.1997727279733813</v>
+      </c>
+      <c r="Y15" s="26">
+        <f>RepeatWeightData!Z42</f>
+        <v>0.21368623864568645</v>
+      </c>
+      <c r="Z15" s="26">
+        <f>RepeatWeightData!AA42</f>
+        <v>0.21368623864568645</v>
+      </c>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>103</v>
       </c>
       <c r="B16" t="str">
-        <f>DryDownData!C43</f>
+        <f>RepeatWeightData!C43</f>
         <v>TopSoil_0</v>
       </c>
       <c r="C16">
-        <f>DryDownData!D43</f>
+        <f>RepeatWeightData!D43</f>
         <v>1</v>
       </c>
       <c r="D16">
-        <f>DryDownData!E43</f>
+        <f>RepeatWeightData!E43</f>
         <v>3</v>
       </c>
       <c r="E16" s="26">
-        <f>DryDownData!F43</f>
+        <f>RepeatWeightData!F43</f>
         <v>0.39728529082934744</v>
       </c>
       <c r="F16" s="26">
-        <f>DryDownData!G43</f>
+        <f>RepeatWeightData!G43</f>
         <v>0.37889995805527715</v>
       </c>
       <c r="G16" s="26">
-        <f>DryDownData!H43</f>
+        <f>RepeatWeightData!H43</f>
         <v>0.36475739438291532</v>
       </c>
       <c r="H16" s="26">
-        <f>DryDownData!I43</f>
+        <f>RepeatWeightData!I43</f>
         <v>0.32374395973306597</v>
       </c>
       <c r="I16" s="26">
-        <f>DryDownData!J43</f>
+        <f>RepeatWeightData!J43</f>
         <v>0.28555903781768921</v>
       </c>
       <c r="J16" s="26">
-        <f>DryDownData!K43</f>
+        <f>RepeatWeightData!K43</f>
         <v>0.26293093594191019</v>
       </c>
       <c r="K16" s="26">
-        <f>DryDownData!L43</f>
+        <f>RepeatWeightData!L43</f>
         <v>0.23323155222995046</v>
       </c>
       <c r="L16" s="26">
-        <f>DryDownData!M43</f>
+        <f>RepeatWeightData!M43</f>
         <v>0.22333175765929714</v>
       </c>
       <c r="M16" s="26">
-        <f>DryDownData!N43</f>
+        <f>RepeatWeightData!N43</f>
         <v>0.20918919398693533</v>
       </c>
       <c r="N16" s="26">
-        <f>DryDownData!O43</f>
+        <f>RepeatWeightData!O43</f>
         <v>0.19787514304904591</v>
       </c>
+      <c r="O16" s="26">
+        <f>RepeatWeightData!P43</f>
+        <v>0.1922181175801011</v>
+      </c>
+      <c r="P16" s="26">
+        <f>RepeatWeightData!Q43</f>
+        <v>0.18373257937668411</v>
+      </c>
+      <c r="Q16" s="26">
+        <f>RepeatWeightData!R43</f>
+        <v>0.14130488835959865</v>
+      </c>
+      <c r="R16" s="26">
+        <f>RepeatWeightData!S43</f>
+        <v>0.16534724660261377</v>
+      </c>
+      <c r="S16" s="26">
+        <f>RepeatWeightData!T43</f>
+        <v>0.1922181175801011</v>
+      </c>
+      <c r="T16" s="26">
+        <f>RepeatWeightData!U43</f>
+        <v>0.21060345035417144</v>
+      </c>
+      <c r="U16" s="26">
+        <f>RepeatWeightData!V43</f>
+        <v>0.23606006496442286</v>
+      </c>
+      <c r="V16" s="26">
+        <f>RepeatWeightData!W43</f>
+        <v>0.26151667957467406</v>
+      </c>
+      <c r="W16" s="26">
+        <f>RepeatWeightData!X43</f>
+        <v>0.27848775598150832</v>
+      </c>
+      <c r="X16" s="26">
+        <f>RepeatWeightData!Y43</f>
+        <v>0.31384416516241287</v>
+      </c>
+      <c r="Y16" s="26">
+        <f>RepeatWeightData!Z43</f>
+        <v>0.3378865234054278</v>
+      </c>
+      <c r="Z16" s="26">
+        <f>RepeatWeightData!AA43</f>
+        <v>0.34637206160884498</v>
+      </c>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15576,7 +17898,7 @@
         <v>89</v>
       </c>
       <c r="B2">
-        <f>DryDownData!G49</f>
+        <f>RepeatWeightData!G49</f>
         <v>0.97816821869849413</v>
       </c>
     </row>
@@ -15585,7 +17907,7 @@
         <v>90</v>
       </c>
       <c r="B3">
-        <f>DryDownData!G50</f>
+        <f>RepeatWeightData!G50</f>
         <v>2.1917977859390931</v>
       </c>
     </row>
@@ -15594,7 +17916,7 @@
         <v>91</v>
       </c>
       <c r="B4">
-        <f>DryDownData!G51</f>
+        <f>RepeatWeightData!G51</f>
         <v>1.5112146240929052</v>
       </c>
     </row>
@@ -15603,7 +17925,7 @@
         <v>92</v>
       </c>
       <c r="B5">
-        <f>DryDownData!G52</f>
+        <f>RepeatWeightData!G52</f>
         <v>1.866453883298314</v>
       </c>
     </row>
@@ -15612,7 +17934,7 @@
         <v>93</v>
       </c>
       <c r="B6">
-        <f>DryDownData!G53</f>
+        <f>RepeatWeightData!G53</f>
         <v>1.2544590903716519</v>
       </c>
     </row>
@@ -15621,7 +17943,7 @@
         <v>94</v>
       </c>
       <c r="B7">
-        <f>DryDownData!G54</f>
+        <f>RepeatWeightData!G54</f>
         <v>1.866453883298314</v>
       </c>
     </row>
@@ -15630,7 +17952,7 @@
         <v>95</v>
       </c>
       <c r="B8">
-        <f>DryDownData!G55</f>
+        <f>RepeatWeightData!G55</f>
         <v>1.3153466248383332</v>
       </c>
     </row>
@@ -15639,7 +17961,7 @@
         <v>96</v>
       </c>
       <c r="B9">
-        <f>DryDownData!G56</f>
+        <f>RepeatWeightData!G56</f>
         <v>0.97816821869849413</v>
       </c>
     </row>
@@ -15648,7 +17970,7 @@
         <v>97</v>
       </c>
       <c r="B10">
-        <f>DryDownData!G57</f>
+        <f>RepeatWeightData!G57</f>
         <v>2.1917977859390931</v>
       </c>
     </row>
@@ -15657,7 +17979,7 @@
         <v>98</v>
       </c>
       <c r="B11">
-        <f>DryDownData!G58</f>
+        <f>RepeatWeightData!G58</f>
         <v>1.5112146240929052</v>
       </c>
     </row>
@@ -15666,7 +17988,7 @@
         <v>99</v>
       </c>
       <c r="B12">
-        <f>DryDownData!G59</f>
+        <f>RepeatWeightData!G59</f>
         <v>2.1917977859390931</v>
       </c>
     </row>
@@ -15675,7 +17997,7 @@
         <v>100</v>
       </c>
       <c r="B13">
-        <f>DryDownData!G60</f>
+        <f>RepeatWeightData!G60</f>
         <v>1.866453883298314</v>
       </c>
     </row>
@@ -15684,7 +18006,7 @@
         <v>101</v>
       </c>
       <c r="B14">
-        <f>DryDownData!G61</f>
+        <f>RepeatWeightData!G61</f>
         <v>1.5112146240929052</v>
       </c>
     </row>
@@ -15693,7 +18015,7 @@
         <v>102</v>
       </c>
       <c r="B15">
-        <f>DryDownData!G62</f>
+        <f>RepeatWeightData!G62</f>
         <v>1.3153466248383332</v>
       </c>
     </row>
@@ -15702,7 +18024,7 @@
         <v>103</v>
       </c>
       <c r="B16">
-        <f>DryDownData!G63</f>
+        <f>RepeatWeightData!G63</f>
         <v>0.97816821869849413</v>
       </c>
     </row>

--- a/Calibration/SoilWeightData.xlsx
+++ b/Calibration/SoilWeightData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="109">
   <si>
     <t>Layout for CS650 callibration crates</t>
   </si>
@@ -559,17 +559,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,24 +1070,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49443584"/>
-        <c:axId val="49445120"/>
+        <c:axId val="135842048"/>
+        <c:axId val="135892992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49443584"/>
+        <c:axId val="135842048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49445120"/>
+        <c:crossAx val="135892992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49445120"/>
+        <c:axId val="135892992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1095,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49443584"/>
+        <c:crossAx val="135842048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,7 +1107,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1591,23 +1591,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="49488640"/>
-        <c:axId val="49490176"/>
+        <c:axId val="175335680"/>
+        <c:axId val="175349760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49488640"/>
+        <c:axId val="175335680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\-mm\-dd\ h:mm" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49490176"/>
+        <c:crossAx val="175349760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49490176"/>
+        <c:axId val="175349760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1615,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49488640"/>
+        <c:crossAx val="175335680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1627,7 +1627,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9898,8 +9898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:AA1048576"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28:AC43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9919,6 +9919,7 @@
     <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -9935,35 +9936,35 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="29" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
     </row>
     <row r="4" spans="1:30">
       <c r="B4" t="s">
@@ -10035,6 +10036,12 @@
       <c r="AA4" s="9">
         <v>42163</v>
       </c>
+      <c r="AB4" s="9">
+        <v>42165</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>42167</v>
+      </c>
     </row>
     <row r="5" spans="1:30">
       <c r="B5" t="s">
@@ -10106,6 +10113,12 @@
       <c r="AA5" s="10">
         <v>0.54861111111111105</v>
       </c>
+      <c r="AB5" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>0.38194444444444442</v>
+      </c>
     </row>
     <row r="6" spans="1:30">
       <c r="B6" t="s">
@@ -10176,6 +10189,12 @@
       </c>
       <c r="AA6" s="10">
         <v>0.4375</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>0.375</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -10258,8 +10277,12 @@
       <c r="AA8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
+      <c r="AB8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:30">
       <c r="B9">
@@ -10340,6 +10363,12 @@
       <c r="AA9">
         <v>46.5</v>
       </c>
+      <c r="AB9">
+        <v>46.95</v>
+      </c>
+      <c r="AC9">
+        <v>47.2</v>
+      </c>
     </row>
     <row r="10" spans="1:30">
       <c r="B10">
@@ -10420,6 +10449,12 @@
       <c r="AA10">
         <v>78.7</v>
       </c>
+      <c r="AB10">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AC10">
+        <v>79.05</v>
+      </c>
     </row>
     <row r="11" spans="1:30">
       <c r="B11">
@@ -10500,6 +10535,12 @@
       <c r="AA11">
         <v>59.95</v>
       </c>
+      <c r="AB11">
+        <v>60.25</v>
+      </c>
+      <c r="AC11">
+        <v>60.25</v>
+      </c>
     </row>
     <row r="12" spans="1:30">
       <c r="B12">
@@ -10580,6 +10621,12 @@
       <c r="AA12">
         <v>67.150000000000006</v>
       </c>
+      <c r="AB12">
+        <v>67.55</v>
+      </c>
+      <c r="AC12">
+        <v>67.8</v>
+      </c>
     </row>
     <row r="13" spans="1:30">
       <c r="B13">
@@ -10660,6 +10707,12 @@
       <c r="AA13">
         <v>56.55</v>
       </c>
+      <c r="AB13">
+        <v>56.75</v>
+      </c>
+      <c r="AC13">
+        <v>56.85</v>
+      </c>
     </row>
     <row r="14" spans="1:30">
       <c r="B14">
@@ -10740,6 +10793,12 @@
       <c r="AA14">
         <v>69.900000000000006</v>
       </c>
+      <c r="AB14">
+        <v>70.25</v>
+      </c>
+      <c r="AC14">
+        <v>70.5</v>
+      </c>
     </row>
     <row r="15" spans="1:30">
       <c r="B15">
@@ -10820,6 +10879,12 @@
       <c r="AA15">
         <v>56.65</v>
       </c>
+      <c r="AB15">
+        <v>56.75</v>
+      </c>
+      <c r="AC15">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:30">
       <c r="B16">
@@ -10900,8 +10965,14 @@
       <c r="AA16">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="2:27">
+      <c r="AB16">
+        <v>47.25</v>
+      </c>
+      <c r="AC16">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
       <c r="B17">
         <v>9</v>
       </c>
@@ -10980,8 +11051,14 @@
       <c r="AA17">
         <v>78.650000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="2:27">
+      <c r="AB17">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AC17">
+        <v>78.849999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
       <c r="B18">
         <v>10</v>
       </c>
@@ -11060,8 +11137,14 @@
       <c r="AA18">
         <v>60.35</v>
       </c>
-    </row>
-    <row r="19" spans="2:27">
+      <c r="AB18">
+        <v>60.6</v>
+      </c>
+      <c r="AC18">
+        <v>60.75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
       <c r="B19">
         <v>11</v>
       </c>
@@ -11140,8 +11223,14 @@
       <c r="AA19">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="20" spans="2:27">
+      <c r="AB19">
+        <v>80.05</v>
+      </c>
+      <c r="AC19">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
       <c r="B20">
         <v>12</v>
       </c>
@@ -11220,8 +11309,14 @@
       <c r="AA20">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="2:27">
+      <c r="AB20">
+        <v>70.55</v>
+      </c>
+      <c r="AC20">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
       <c r="B21">
         <v>13</v>
       </c>
@@ -11300,8 +11395,14 @@
       <c r="AA21">
         <v>60.05</v>
       </c>
-    </row>
-    <row r="22" spans="2:27">
+      <c r="AB21">
+        <v>60.25</v>
+      </c>
+      <c r="AC21">
+        <v>60.35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
       <c r="B22">
         <v>14</v>
       </c>
@@ -11380,8 +11481,14 @@
       <c r="AA22">
         <v>56.7</v>
       </c>
-    </row>
-    <row r="23" spans="2:27">
+      <c r="AB22">
+        <v>56.7</v>
+      </c>
+      <c r="AC22">
+        <v>56.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
       <c r="B23">
         <v>15</v>
       </c>
@@ -11460,8 +11567,14 @@
       <c r="AA23">
         <v>47.6</v>
       </c>
-    </row>
-    <row r="28" spans="2:27">
+      <c r="AB23">
+        <v>47.9</v>
+      </c>
+      <c r="AC23">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
@@ -11562,8 +11675,16 @@
         <f t="shared" si="2"/>
         <v>42163.4375</v>
       </c>
-    </row>
-    <row r="29" spans="2:27">
+      <c r="AB28" s="25">
+        <f t="shared" ref="AB28:AC28" si="3">AB4+AB6</f>
+        <v>42165.395833333336</v>
+      </c>
+      <c r="AC28" s="25">
+        <f t="shared" si="3"/>
+        <v>42167.375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29">
       <c r="B29">
         <v>1</v>
       </c>
@@ -11582,91 +11703,99 @@
         <v>0.39304252172763893</v>
       </c>
       <c r="G29">
-        <f t="shared" ref="G29:O29" si="3">(G9-$D49)/$D49</f>
+        <f t="shared" ref="G29:O29" si="4">(G9-$D49)/$D49</f>
         <v>0.37041441985186013</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35768611254673438</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.32232970336582983</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28980180691939772</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.25868816684020168</v>
       </c>
       <c r="L29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.23040303949547805</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22333175765929714</v>
       </c>
       <c r="N29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20494642488522682</v>
       </c>
       <c r="O29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1950466303145735</v>
       </c>
       <c r="P29">
-        <f t="shared" ref="P29:Q29" si="4">(P9-$D49)/$D49</f>
+        <f t="shared" ref="P29:Q29" si="5">(P9-$D49)/$D49</f>
         <v>0.18797534847839259</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1780755539077393</v>
       </c>
       <c r="R29">
-        <f t="shared" ref="R29:AA29" si="5">(R9-$D49)/$D49</f>
+        <f t="shared" ref="R29:AA29" si="6">(R9-$D49)/$D49</f>
         <v>0.13281935015618143</v>
       </c>
       <c r="S29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.15261893929748807</v>
       </c>
       <c r="T29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.17666129754050319</v>
       </c>
       <c r="U29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18797534847839259</v>
       </c>
       <c r="V29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20777493761969923</v>
       </c>
       <c r="W29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23181729586271416</v>
       </c>
       <c r="X29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.24454560316783988</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27707349961427202</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30394437059175955</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.31525842152964895</v>
       </c>
-    </row>
-    <row r="30" spans="2:27">
+      <c r="AB29">
+        <f t="shared" ref="AB29:AC29" si="7">(AB9-$D49)/$D49</f>
+        <v>0.32798672883477464</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="7"/>
+        <v>0.33505801067095559</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29">
       <c r="B30">
         <v>2</v>
       </c>
@@ -11681,95 +11810,103 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:O43" si="6">(F10-$D50)/$D50</f>
+        <f t="shared" ref="F30:O43" si="8">(F10-$D50)/$D50</f>
         <v>3.7328272492871357E-2</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
-        <v>3.2082617511870852E-2</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="6"/>
-        <v>2.5525548785620085E-2</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="6"/>
-        <v>1.4378531950993669E-2</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="6"/>
-        <v>9.1328769699931672E-3</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="6"/>
-        <v>7.1657563521178623E-3</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="6"/>
-        <v>5.8543426068677828E-3</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="6"/>
-        <v>5.1986357342427439E-3</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="6"/>
-        <v>3.2315151163674386E-3</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="6"/>
-        <v>3.2315151163674386E-3</v>
-      </c>
-      <c r="P30">
-        <f t="shared" ref="P30:Q30" si="7">(P10-$D50)/$D50</f>
-        <v>1.9201013711173597E-3</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="7"/>
-        <v>-4.7019246757945042E-5</v>
-      </c>
-      <c r="R30">
-        <f t="shared" ref="R30:AA30" si="8">(R10-$D50)/$D50</f>
-        <v>-1.358432992008024E-3</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="8"/>
-        <v>6.0868762586709449E-4</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="8"/>
-        <v>9.7885838426182061E-3</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="8"/>
-        <v>1.6345652568868975E-2</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="8"/>
-        <v>1.8968480059369318E-2</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="8"/>
-        <v>2.0935600677244436E-2</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="8"/>
-        <v>2.0279893804619396E-2</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="8"/>
-        <v>2.6836962530870166E-2</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="8"/>
-        <v>3.0771203766620587E-2</v>
-      </c>
-      <c r="AA30">
         <f t="shared" si="8"/>
         <v>3.2082617511870852E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:27">
+      <c r="H30">
+        <f t="shared" si="8"/>
+        <v>2.5525548785620085E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="8"/>
+        <v>1.4378531950993669E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="8"/>
+        <v>9.1328769699931672E-3</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>7.1657563521178623E-3</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="8"/>
+        <v>5.8543426068677828E-3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>5.1986357342427439E-3</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>3.2315151163674386E-3</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>3.2315151163674386E-3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:Q30" si="9">(P10-$D50)/$D50</f>
+        <v>1.9201013711173597E-3</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="9"/>
+        <v>-4.7019246757945042E-5</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30:AA30" si="10">(R10-$D50)/$D50</f>
+        <v>-1.358432992008024E-3</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="10"/>
+        <v>6.0868762586709449E-4</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="10"/>
+        <v>9.7885838426182061E-3</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="10"/>
+        <v>1.6345652568868975E-2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="10"/>
+        <v>1.8968480059369318E-2</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="10"/>
+        <v>2.0935600677244436E-2</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="10"/>
+        <v>2.0279893804619396E-2</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="10"/>
+        <v>2.6836962530870166E-2</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="10"/>
+        <v>3.0771203766620587E-2</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="10"/>
+        <v>3.2082617511870852E-2</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" ref="AB30:AC30" si="11">(AB10-$D50)/$D50</f>
+        <v>3.4705445002371195E-2</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="11"/>
+        <v>3.6672565620246317E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29">
       <c r="B31">
         <v>3</v>
       </c>
@@ -11784,95 +11921,103 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.17690234161554824</v>
       </c>
       <c r="G31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16471132134383343</v>
       </c>
       <c r="H31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15627138423264617</v>
       </c>
       <c r="I31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13001380210895269</v>
       </c>
       <c r="J31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11782278183723788</v>
       </c>
       <c r="K31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11500946946684218</v>
       </c>
       <c r="L31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10750730314578678</v>
       </c>
       <c r="M31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10563176156552306</v>
       </c>
       <c r="N31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10188067840499537</v>
       </c>
       <c r="O31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.906736603459966E-2</v>
       </c>
       <c r="P31">
-        <f t="shared" ref="P31:Q31" si="9">(P11-$D51)/$D51</f>
+        <f t="shared" ref="P31:Q31" si="12">(P11-$D51)/$D51</f>
         <v>9.6254053664203962E-2</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.2502970503676257E-2</v>
       </c>
       <c r="R31">
-        <f t="shared" ref="R31:AA31" si="10">(R11-$D51)/$D51</f>
+        <f t="shared" ref="R31:AA31" si="13">(R11-$D51)/$D51</f>
         <v>7.1872013120774195E-2</v>
       </c>
       <c r="S31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.5623096281301885E-2</v>
       </c>
       <c r="T31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.2502970503676257E-2</v>
       </c>
       <c r="U31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.10281844919512723</v>
       </c>
       <c r="V31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.10469399077539107</v>
       </c>
       <c r="W31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.10750730314578678</v>
       </c>
       <c r="X31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.10563176156552306</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.11688501104710589</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.12438717736816128</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.12438717736816128</v>
       </c>
-    </row>
-    <row r="32" spans="2:27">
+      <c r="AB31">
+        <f t="shared" ref="AB31:AC31" si="14">(AB11-$D51)/$D51</f>
+        <v>0.13001380210895269</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="14"/>
+        <v>0.13001380210895269</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29">
       <c r="B32">
         <v>4</v>
       </c>
@@ -11887,95 +12032,103 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.2236643698188402E-2</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6110083909552575E-2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.2280984041655235E-2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6154424253019624E-2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0793684437963223E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9262044490804374E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4667124649327615E-2</v>
       </c>
       <c r="M32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3135484702168547E-2</v>
       </c>
       <c r="N32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0838024781430275E-2</v>
       </c>
       <c r="O32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8540564860691784E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:Q32" si="11">(P12-$D52)/$D52</f>
+        <f t="shared" ref="P32:Q32" si="15">(P12-$D52)/$D52</f>
         <v>1.7008924913532938E-2</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.5477284966373872E-2</v>
       </c>
       <c r="R32">
-        <f t="shared" ref="R32:AA32" si="12">(R12-$D52)/$D52</f>
+        <f t="shared" ref="R32:AA32" si="16">(R12-$D52)/$D52</f>
         <v>-6.0493447879490195E-4</v>
       </c>
       <c r="S32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-6.0493447879490195E-4</v>
       </c>
       <c r="T32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.0532652569997734E-3</v>
       </c>
       <c r="U32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.0882365124897111E-2</v>
       </c>
       <c r="V32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.5477284966373872E-2</v>
       </c>
       <c r="W32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.3945645019215025E-2</v>
       </c>
       <c r="X32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.7774744887112361E-2</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.2369664728589124E-2</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.5432944622907037E-2</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.8496224517224951E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:27">
+      <c r="AB32">
+        <f t="shared" ref="AB32:AC32" si="17">(AB12-$D52)/$D52</f>
+        <v>3.4622784305860563E-2</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="17"/>
+        <v>3.8451884173757896E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29">
       <c r="B33">
         <v>5</v>
       </c>
@@ -11990,95 +12143,103 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.29183139969396765</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.27503983037385538</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.26384545082711391</v>
       </c>
       <c r="I33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22914287423221522</v>
       </c>
       <c r="J33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.196679173546665</v>
       </c>
       <c r="K33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.17876816627187853</v>
       </c>
       <c r="L33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14854334149567647</v>
       </c>
       <c r="M33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13511008603958682</v>
       </c>
       <c r="N33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12503514444751943</v>
       </c>
       <c r="O33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11719907876480035</v>
       </c>
       <c r="P33">
-        <f t="shared" ref="P33:Q33" si="13">(P13-$D53)/$D53</f>
+        <f t="shared" ref="P33:Q33" si="18">(P13-$D53)/$D53</f>
         <v>0.1116018889914296</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.10600469921805886</v>
       </c>
       <c r="R33">
-        <f t="shared" ref="R33:AA33" si="14">(R13-$D53)/$D53</f>
+        <f t="shared" ref="R33:AA33" si="19">(R13-$D53)/$D53</f>
         <v>0.10264638535403645</v>
       </c>
       <c r="S33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.12055739262882276</v>
       </c>
       <c r="T33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.13846839990360924</v>
       </c>
       <c r="U33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.14854334149567647</v>
       </c>
       <c r="V33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.16869322467981127</v>
       </c>
       <c r="W33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.18884310786394592</v>
       </c>
       <c r="X33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.20115692536536151</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.23026231218688945</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.25712882309906893</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.2660843267364621</v>
       </c>
-    </row>
-    <row r="34" spans="2:27">
+      <c r="AB33">
+        <f t="shared" ref="AB33:AC33" si="20">(AB13-$D53)/$D53</f>
+        <v>0.27056207855515874</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="20"/>
+        <v>0.27280095446450708</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29">
       <c r="B34">
         <v>6</v>
       </c>
@@ -12093,95 +12254,103 @@
         <v>2</v>
       </c>
       <c r="F34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.3590922271479693E-2</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.5932722535685013E-2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.28694426413671E-2</v>
       </c>
       <c r="I34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6742882852731273E-2</v>
       </c>
       <c r="J34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.2147963011254507E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.985050309051602E-2</v>
       </c>
       <c r="L34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.5255583249039253E-2</v>
       </c>
       <c r="M34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.3723943301880415E-2</v>
       </c>
       <c r="N34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.1426483381141921E-2</v>
       </c>
       <c r="O34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.8363203486824007E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:Q34" si="15">(P14-$D54)/$D54</f>
+        <f t="shared" ref="P34:Q34" si="21">(P14-$D54)/$D54</f>
         <v>5.7597383513244588E-2</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>5.4534103618926674E-2</v>
       </c>
       <c r="R34">
-        <f t="shared" ref="R34:AA34" si="16">(R14-$D54)/$D54</f>
+        <f t="shared" ref="R34:AA34" si="22">(R14-$D54)/$D54</f>
         <v>3.9983524120916963E-2</v>
       </c>
       <c r="S34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3.9983524120916963E-2</v>
       </c>
       <c r="T34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4.8407543830291062E-2</v>
       </c>
       <c r="U34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5.1470823724608976E-2</v>
       </c>
       <c r="V34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5.6831563539665161E-2</v>
       </c>
       <c r="W34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>5.6065743566085735E-2</v>
       </c>
       <c r="X34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6.0660663407562501E-2</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6.5255583249039253E-2</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6.6787223196198328E-2</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>7.0616323064095668E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:27">
+      <c r="AB34">
+        <f t="shared" ref="AB34:AC34" si="23">(AB14-$D54)/$D54</f>
+        <v>7.5977062879151847E-2</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="23"/>
+        <v>7.9806162747049186E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29">
       <c r="B35">
         <v>7</v>
       </c>
@@ -12196,95 +12365,103 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22010785895598103</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.20619434828367603</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.19442137771480242</v>
       </c>
       <c r="I35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15910246600818195</v>
       </c>
       <c r="J35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12913490456014035</v>
       </c>
       <c r="K35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11308085378440375</v>
       </c>
       <c r="L35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.9534912646656722E-2</v>
       </c>
       <c r="M35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.9902482181214859E-2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.1340321767488543E-2</v>
       </c>
       <c r="O35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2778161353762393E-2</v>
       </c>
       <c r="P35">
-        <f t="shared" ref="P35:Q35" si="17">(P15-$D55)/$D55</f>
+        <f t="shared" ref="P35:Q35" si="24">(P15-$D55)/$D55</f>
         <v>5.9567351198615108E-2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>5.4216000940036244E-2</v>
       </c>
       <c r="R35">
-        <f t="shared" ref="R35:AA35" si="18">(R15-$D55)/$D55</f>
+        <f t="shared" ref="R35:AA35" si="25">(R15-$D55)/$D55</f>
         <v>5.314573088832053E-2</v>
       </c>
       <c r="S35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>7.3480861870920122E-2</v>
       </c>
       <c r="T35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>9.3815992853519867E-2</v>
       </c>
       <c r="U35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0.10344842331896173</v>
       </c>
       <c r="V35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0.12271328424984576</v>
       </c>
       <c r="W35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0.14197814518072965</v>
       </c>
       <c r="X35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0.15482138580131896</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0.18264840714592898</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0.20619434828367603</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0.21261596859397058</v>
       </c>
-    </row>
-    <row r="36" spans="2:27">
+      <c r="AB35">
+        <f t="shared" ref="AB35:AC35" si="26">(AB15-$D55)/$D55</f>
+        <v>0.21475650869740218</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="26"/>
+        <v>0.22010785895598103</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29">
       <c r="B36">
         <v>8</v>
       </c>
@@ -12299,95 +12476,103 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.38455698352422191</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.36475739438291532</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.34778631797608112</v>
       </c>
       <c r="I36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.30253011422452325</v>
       </c>
       <c r="J36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.26151667957467406</v>
       </c>
       <c r="K36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.24313134680060378</v>
       </c>
       <c r="L36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21626047582311622</v>
       </c>
       <c r="M36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.20494642488522682</v>
       </c>
       <c r="N36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1936323739473374</v>
       </c>
       <c r="O36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.18373257937668411</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:Q36" si="19">(P16-$D56)/$D56</f>
+        <f t="shared" ref="P36:Q36" si="27">(P16-$D56)/$D56</f>
         <v>0.17666129754050319</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.16817575933708598</v>
       </c>
       <c r="R36">
-        <f t="shared" ref="R36:AA36" si="20">(R16-$D56)/$D56</f>
+        <f t="shared" ref="R36:AA36" si="28">(R16-$D56)/$D56</f>
         <v>0.13847637562512624</v>
       </c>
       <c r="S36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0.16110447750090506</v>
       </c>
       <c r="T36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0.18373257937668411</v>
       </c>
       <c r="U36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0.19646088668180961</v>
       </c>
       <c r="V36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0.21908898855758863</v>
       </c>
       <c r="W36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0.24171709043336748</v>
       </c>
       <c r="X36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0.25444539773849317</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0.28980180691939772</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0.31667267789688508</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0.32940098520201078</v>
       </c>
-    </row>
-    <row r="37" spans="2:27">
+      <c r="AB36">
+        <f t="shared" ref="AB36:AC36" si="29">(AB16-$D56)/$D56</f>
+        <v>0.33647226703819166</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="29"/>
+        <v>0.34354354887437261</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29">
       <c r="B37">
         <v>9</v>
       </c>
@@ -12402,95 +12587,103 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1426910639245811E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4869841912995048E-2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.0279893804619396E-2</v>
       </c>
       <c r="I37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.5100494794928226E-3</v>
       </c>
       <c r="J37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5758082437423993E-3</v>
       </c>
       <c r="K37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.0868762586709449E-4</v>
       </c>
       <c r="L37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-7.0272611938298449E-4</v>
       </c>
       <c r="M37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.0141398646332498E-3</v>
       </c>
       <c r="N37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.6698467372582892E-3</v>
       </c>
       <c r="O37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.3255536098833289E-3</v>
       </c>
       <c r="P37">
-        <f t="shared" ref="P37:Q37" si="21">(P17-$D57)/$D57</f>
+        <f t="shared" ref="P37:Q37" si="30">(P17-$D57)/$D57</f>
         <v>-4.6369673551334076E-3</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-4.6369673551334076E-3</v>
       </c>
       <c r="R37">
-        <f t="shared" ref="R37:AA37" si="22">(R17-$D57)/$D57</f>
+        <f t="shared" ref="R37:AA37" si="31">(R17-$D57)/$D57</f>
         <v>-6.6040879730087125E-3</v>
       </c>
       <c r="S37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>-3.9812604825083687E-3</v>
       </c>
       <c r="T37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>6.5100494794928226E-3</v>
       </c>
       <c r="U37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.306711820574359E-2</v>
       </c>
       <c r="V37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.5689945696243934E-2</v>
       </c>
       <c r="W37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.8312773186744277E-2</v>
       </c>
       <c r="X37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>1.8968480059369318E-2</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>2.4869841912995048E-2</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>2.9459790021370509E-2</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>3.1426910639245811E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:27">
+      <c r="AB37">
+        <f t="shared" ref="AB37:AC37" si="32">(AB17-$D57)/$D57</f>
+        <v>3.4705445002371195E-2</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="32"/>
+        <v>3.4049738129745974E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29">
       <c r="B38">
         <v>10</v>
       </c>
@@ -12505,95 +12698,103 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16189800897343773</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14876921791159092</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15908469660304189</v>
       </c>
       <c r="I38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12532494815829315</v>
       </c>
       <c r="J38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11782278183723788</v>
       </c>
       <c r="K38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11688501104710589</v>
       </c>
       <c r="L38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10938284472605063</v>
       </c>
       <c r="M38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10656953235565493</v>
       </c>
       <c r="N38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10469399077539107</v>
       </c>
       <c r="O38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10094290761486351</v>
       </c>
       <c r="P38">
-        <f t="shared" ref="P38:Q38" si="23">(P18-$D58)/$D58</f>
+        <f t="shared" ref="P38:Q38" si="33">(P18-$D58)/$D58</f>
         <v>0.10000513682473151</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>9.7191824454335815E-2</v>
       </c>
       <c r="R38">
-        <f t="shared" ref="R38:AA38" si="24">(R18-$D58)/$D58</f>
+        <f t="shared" ref="R38:AA38" si="34">(R18-$D58)/$D58</f>
         <v>7.6560867071433752E-2</v>
       </c>
       <c r="S38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>8.0311950231961443E-2</v>
       </c>
       <c r="T38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>9.906736603459966E-2</v>
       </c>
       <c r="U38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.10844507393591878</v>
       </c>
       <c r="V38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.11032061551618262</v>
       </c>
       <c r="W38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.11313392788657833</v>
       </c>
       <c r="X38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.11219615709644634</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.12344940657802929</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.13001380210895269</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.13188934368921654</v>
       </c>
-    </row>
-    <row r="39" spans="2:27">
+      <c r="AB38">
+        <f t="shared" ref="AB38:AC38" si="35">(AB18-$D58)/$D58</f>
+        <v>0.13657819763987611</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="35"/>
+        <v>0.13939151001027181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29">
       <c r="B39">
         <v>11</v>
       </c>
@@ -12608,95 +12809,103 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.847528932749777E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0606806855996741E-2</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6016858747621276E-2</v>
       </c>
       <c r="I39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2247014422494701E-2</v>
       </c>
       <c r="J39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8312773186744277E-2</v>
       </c>
       <c r="K39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7001359441494012E-2</v>
       </c>
       <c r="L39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5034238823618895E-2</v>
       </c>
       <c r="M39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5034238823618895E-2</v>
       </c>
       <c r="N39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.306711820574359E-2</v>
       </c>
       <c r="O39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2411411333118551E-2</v>
       </c>
       <c r="P39">
-        <f t="shared" ref="P39:Q39" si="25">(P19-$D59)/$D59</f>
+        <f t="shared" ref="P39:Q39" si="36">(P19-$D59)/$D59</f>
         <v>1.2411411333118551E-2</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="36"/>
         <v>1.1099997587868286E-2</v>
       </c>
       <c r="R39">
-        <f t="shared" ref="R39:AA39" si="26">(R19-$D59)/$D59</f>
+        <f t="shared" ref="R39:AA39" si="37">(R19-$D59)/$D59</f>
         <v>9.7885838426182061E-3</v>
       </c>
       <c r="S39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>1.1755704460493512E-2</v>
       </c>
       <c r="T39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>2.2247014422494701E-2</v>
       </c>
       <c r="U39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>2.9459790021370509E-2</v>
       </c>
       <c r="V39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>3.1426910639245811E-2</v>
       </c>
       <c r="W39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>3.4705445002371195E-2</v>
       </c>
       <c r="X39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>3.4705445002371195E-2</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>4.0606806855996741E-2</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>4.5196754964372386E-2</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="37"/>
         <v>4.6508168709622467E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:27">
+      <c r="AB39">
+        <f t="shared" ref="AB39:AC39" si="38">(AB19-$D59)/$D59</f>
+        <v>4.9786703072747851E-2</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="38"/>
+        <v>5.1753823690623153E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29">
       <c r="B40">
         <v>12</v>
       </c>
@@ -12711,95 +12920,103 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.0527642377161779E-2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.3635262614946526E-2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.0571982720628613E-2</v>
       </c>
       <c r="I40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.521124290557242E-2</v>
       </c>
       <c r="J40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.1382143037675094E-2</v>
       </c>
       <c r="K40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.985050309051602E-2</v>
       </c>
       <c r="L40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.602140322261868E-2</v>
       </c>
       <c r="M40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.4489763275459841E-2</v>
       </c>
       <c r="N40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2192303354721347E-2</v>
       </c>
       <c r="O40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.9894843433983075E-2</v>
       </c>
       <c r="P40">
-        <f t="shared" ref="P40:Q40" si="27">(P20-$D60)/$D60</f>
+        <f t="shared" ref="P40:Q40" si="39">(P20-$D60)/$D60</f>
         <v>5.8363203486824007E-2</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>5.6831563539665161E-2</v>
       </c>
       <c r="R40">
-        <f t="shared" ref="R40:AA40" si="28">(R20-$D60)/$D60</f>
+        <f t="shared" ref="R40:AA40" si="40">(R20-$D60)/$D60</f>
         <v>4.074934409449639E-2</v>
       </c>
       <c r="S40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>4.1515164068075809E-2</v>
       </c>
       <c r="T40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>4.9939183777449908E-2</v>
       </c>
       <c r="U40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>5.3002463671767822E-2</v>
       </c>
       <c r="V40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>5.8363203486824007E-2</v>
       </c>
       <c r="W40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>5.9129023460403649E-2</v>
       </c>
       <c r="X40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>6.1426483381141921E-2</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>6.6787223196198328E-2</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>6.985050309051602E-2</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>7.3679602958413359E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:27">
+      <c r="AB40">
+        <f t="shared" ref="AB40:AC40" si="41">(AB20-$D60)/$D60</f>
+        <v>8.0571982720628613E-2</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="41"/>
+        <v>8.4401082588525952E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29">
       <c r="B41">
         <v>13</v>
       </c>
@@ -12814,95 +13031,103 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14783144712145907</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14032928080040366</v>
       </c>
       <c r="H41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15252030107211861</v>
       </c>
       <c r="I41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12251163578789744</v>
       </c>
       <c r="J41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11407169867671019</v>
       </c>
       <c r="K41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11032061551618262</v>
       </c>
       <c r="L41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10281844919512723</v>
       </c>
       <c r="M41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10000513682473151</v>
       </c>
       <c r="N41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.531628287407197E-2</v>
       </c>
       <c r="O41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.2502970503676257E-2</v>
       </c>
       <c r="P41">
-        <f t="shared" ref="P41:Q41" si="29">(P21-$D61)/$D61</f>
+        <f t="shared" ref="P41:Q41" si="42">(P21-$D61)/$D61</f>
         <v>9.0627428923412412E-2</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>8.6876345762884846E-2</v>
       </c>
       <c r="R41">
-        <f t="shared" ref="R41:AA41" si="30">(R21-$D61)/$D61</f>
+        <f t="shared" ref="R41:AA41" si="43">(R21-$D61)/$D61</f>
         <v>6.5307617589850792E-2</v>
       </c>
       <c r="S41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>6.9058700750378482E-2</v>
       </c>
       <c r="T41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>8.6876345762884846E-2</v>
       </c>
       <c r="U41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>9.906736603459966E-2</v>
       </c>
       <c r="V41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.10281844919512723</v>
       </c>
       <c r="W41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.10750730314578678</v>
       </c>
       <c r="X41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.10750730314578678</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.11782278183723788</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.12532494815829315</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>0.126262718948425</v>
       </c>
-    </row>
-    <row r="42" spans="2:27">
+      <c r="AB41">
+        <f t="shared" ref="AB41:AC41" si="44">(AB21-$D61)/$D61</f>
+        <v>0.13001380210895269</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="44"/>
+        <v>0.13188934368921654</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29">
       <c r="B42">
         <v>14</v>
       </c>
@@ -12917,95 +13142,103 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22759974931799148</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21261596859397058</v>
       </c>
       <c r="H42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.20084299802509714</v>
       </c>
       <c r="I42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1665943563701924</v>
       </c>
       <c r="J42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1344862548187192</v>
       </c>
       <c r="K42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11843220404298262</v>
       </c>
       <c r="L42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.2745722801804001E-2</v>
       </c>
       <c r="M42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.3113292336362138E-2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.3480861870920122E-2</v>
       </c>
       <c r="O42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.4918701457193972E-2</v>
       </c>
       <c r="P42">
-        <f t="shared" ref="P42:Q42" si="31">(P22-$D62)/$D62</f>
+        <f t="shared" ref="P42:Q42" si="45">(P22-$D62)/$D62</f>
         <v>6.0637621250330821E-2</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>5.6356541043467823E-2</v>
       </c>
       <c r="R42">
-        <f t="shared" ref="R42:AA42" si="32">(R22-$D62)/$D62</f>
+        <f t="shared" ref="R42:AA42" si="46">(R22-$D62)/$D62</f>
         <v>5.314573088832053E-2</v>
       </c>
       <c r="S42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>7.3480861870920122E-2</v>
       </c>
       <c r="T42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>9.5956532956951446E-2</v>
       </c>
       <c r="U42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>0.11094031368097218</v>
       </c>
       <c r="V42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>0.13127544466357191</v>
       </c>
       <c r="W42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>0.1537511157496031</v>
       </c>
       <c r="X42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>0.16980516652533967</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>0.1997727279733813</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>0.21368623864568645</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>0.21368623864568645</v>
       </c>
-    </row>
-    <row r="43" spans="2:27">
+      <c r="AB42">
+        <f t="shared" ref="AB42:AC42" si="47">(AB22-$D62)/$D62</f>
+        <v>0.21368623864568645</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="47"/>
+        <v>0.21475650869740218</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29">
       <c r="B43">
         <v>15</v>
       </c>
@@ -13020,95 +13253,103 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39728529082934744</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37889995805527715</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.36475739438291532</v>
       </c>
       <c r="I43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.32374395973306597</v>
       </c>
       <c r="J43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.28555903781768921</v>
       </c>
       <c r="K43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.26293093594191019</v>
       </c>
       <c r="L43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.23323155222995046</v>
       </c>
       <c r="M43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22333175765929714</v>
       </c>
       <c r="N43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.20918919398693533</v>
       </c>
       <c r="O43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.19787514304904591</v>
       </c>
       <c r="P43">
-        <f t="shared" ref="P43:Q43" si="33">(P23-$D63)/$D63</f>
+        <f t="shared" ref="P43:Q43" si="48">(P23-$D63)/$D63</f>
         <v>0.1922181175801011</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="33"/>
+        <f t="shared" si="48"/>
         <v>0.18373257937668411</v>
       </c>
       <c r="R43">
-        <f t="shared" ref="R43:AA43" si="34">(R23-$D63)/$D63</f>
+        <f t="shared" ref="R43:AA43" si="49">(R23-$D63)/$D63</f>
         <v>0.14130488835959865</v>
       </c>
       <c r="S43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.16534724660261377</v>
       </c>
       <c r="T43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.1922181175801011</v>
       </c>
       <c r="U43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.21060345035417144</v>
       </c>
       <c r="V43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.23606006496442286</v>
       </c>
       <c r="W43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.26151667957467406</v>
       </c>
       <c r="X43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.27848775598150832</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.31384416516241287</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.3378865234054278</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="34"/>
+        <f t="shared" si="49"/>
         <v>0.34637206160884498</v>
       </c>
-    </row>
-    <row r="48" spans="2:27">
+      <c r="AB43">
+        <f t="shared" ref="AB43:AC43" si="50">(AB23-$D63)/$D63</f>
+        <v>0.354857599812262</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="50"/>
+        <v>0.36051462528120681</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29">
       <c r="B48" s="22" t="s">
         <v>65</v>
       </c>
@@ -13148,7 +13389,7 @@
         <v>73.863585386147449</v>
       </c>
       <c r="D50">
-        <f t="shared" ref="D50:D63" si="35">C50+2.39</f>
+        <f t="shared" ref="D50:D63" si="51">C50+2.39</f>
         <v>76.253585386147449</v>
       </c>
       <c r="F50" s="23">
@@ -13166,7 +13407,7 @@
         <v>50.927932831930903</v>
       </c>
       <c r="D51">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>53.317932831930904</v>
       </c>
       <c r="F51" s="23">
@@ -13184,7 +13425,7 @@
         <v>62.899495867153178</v>
       </c>
       <c r="D52">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>65.289495867153178</v>
       </c>
       <c r="F52" s="23">
@@ -13202,7 +13443,7 @@
         <v>42.275271345524672</v>
       </c>
       <c r="D53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>44.665271345524673</v>
       </c>
       <c r="F53" s="23">
@@ -13220,7 +13461,7 @@
         <v>62.899495867153178</v>
       </c>
       <c r="D54">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>65.289495867153178</v>
       </c>
       <c r="F54" s="23">
@@ -13238,7 +13479,7 @@
         <v>44.327181257051834</v>
       </c>
       <c r="D55">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>46.717181257051834</v>
       </c>
       <c r="F55" s="23">
@@ -13256,7 +13497,7 @@
         <v>32.964268970139251</v>
       </c>
       <c r="D56">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>35.354268970139252</v>
       </c>
       <c r="F56" s="23">
@@ -13274,7 +13515,7 @@
         <v>73.863585386147449</v>
       </c>
       <c r="D57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>76.253585386147449</v>
       </c>
       <c r="F57" s="23">
@@ -13292,7 +13533,7 @@
         <v>50.927932831930903</v>
       </c>
       <c r="D58">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>53.317932831930904</v>
       </c>
       <c r="F58" s="23">
@@ -13310,7 +13551,7 @@
         <v>73.863585386147449</v>
       </c>
       <c r="D59">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>76.253585386147449</v>
       </c>
       <c r="F59" s="23">
@@ -13328,7 +13569,7 @@
         <v>62.899495867153178</v>
       </c>
       <c r="D60">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>65.289495867153178</v>
       </c>
       <c r="F60" s="23">
@@ -13346,7 +13587,7 @@
         <v>50.927932831930903</v>
       </c>
       <c r="D61">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>53.317932831930904</v>
       </c>
       <c r="F61" s="23">
@@ -13364,7 +13605,7 @@
         <v>44.327181257051834</v>
       </c>
       <c r="D62">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>46.717181257051834</v>
       </c>
       <c r="F62" s="23">
@@ -13382,7 +13623,7 @@
         <v>32.964268970139251</v>
       </c>
       <c r="D63">
-        <f t="shared" si="35"/>
+        <f t="shared" si="51"/>
         <v>35.354268970139252</v>
       </c>
       <c r="F63" s="23">
@@ -13494,11 +13735,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="12" t="s">
         <v>33</v>
       </c>
@@ -13518,11 +13759,11 @@
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="12" t="s">
         <v>34</v>
       </c>
@@ -13542,11 +13783,11 @@
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="27"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="15"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
@@ -13557,11 +13798,11 @@
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="15"/>
       <c r="G10" s="14"/>
     </row>
@@ -13578,14 +13819,14 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:18">
       <c r="F15" t="s">
@@ -16121,8 +16362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16139,6 +16380,7 @@
     <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -16246,8 +16488,14 @@
         <f>RepeatWeightData!AA28</f>
         <v>42163.4375</v>
       </c>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
+      <c r="AA1" s="25">
+        <f>RepeatWeightData!AB28</f>
+        <v>42165.395833333336</v>
+      </c>
+      <c r="AB1" s="25">
+        <f>RepeatWeightData!AC28</f>
+        <v>42167.375</v>
+      </c>
       <c r="AC1" s="25"/>
     </row>
     <row r="2" spans="1:29">
@@ -16354,8 +16602,14 @@
         <f>RepeatWeightData!AA29</f>
         <v>0.31525842152964895</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
+      <c r="AA2" s="26">
+        <f>RepeatWeightData!AB29</f>
+        <v>0.32798672883477464</v>
+      </c>
+      <c r="AB2" s="26">
+        <f>RepeatWeightData!AC29</f>
+        <v>0.33505801067095559</v>
+      </c>
       <c r="AC2" s="26"/>
     </row>
     <row r="3" spans="1:29">
@@ -16462,8 +16716,14 @@
         <f>RepeatWeightData!AA30</f>
         <v>3.2082617511870852E-2</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
+      <c r="AA3" s="26">
+        <f>RepeatWeightData!AB30</f>
+        <v>3.4705445002371195E-2</v>
+      </c>
+      <c r="AB3" s="26">
+        <f>RepeatWeightData!AC30</f>
+        <v>3.6672565620246317E-2</v>
+      </c>
       <c r="AC3" s="26"/>
     </row>
     <row r="4" spans="1:29">
@@ -16570,8 +16830,14 @@
         <f>RepeatWeightData!AA31</f>
         <v>0.12438717736816128</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
+      <c r="AA4" s="26">
+        <f>RepeatWeightData!AB31</f>
+        <v>0.13001380210895269</v>
+      </c>
+      <c r="AB4" s="26">
+        <f>RepeatWeightData!AC31</f>
+        <v>0.13001380210895269</v>
+      </c>
       <c r="AC4" s="26"/>
     </row>
     <row r="5" spans="1:29">
@@ -16678,8 +16944,14 @@
         <f>RepeatWeightData!AA32</f>
         <v>2.8496224517224951E-2</v>
       </c>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
+      <c r="AA5" s="26">
+        <f>RepeatWeightData!AB32</f>
+        <v>3.4622784305860563E-2</v>
+      </c>
+      <c r="AB5" s="26">
+        <f>RepeatWeightData!AC32</f>
+        <v>3.8451884173757896E-2</v>
+      </c>
       <c r="AC5" s="26"/>
     </row>
     <row r="6" spans="1:29">
@@ -16786,8 +17058,14 @@
         <f>RepeatWeightData!AA33</f>
         <v>0.2660843267364621</v>
       </c>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
+      <c r="AA6" s="26">
+        <f>RepeatWeightData!AB33</f>
+        <v>0.27056207855515874</v>
+      </c>
+      <c r="AB6" s="26">
+        <f>RepeatWeightData!AC33</f>
+        <v>0.27280095446450708</v>
+      </c>
       <c r="AC6" s="26"/>
     </row>
     <row r="7" spans="1:29">
@@ -16894,8 +17172,14 @@
         <f>RepeatWeightData!AA34</f>
         <v>7.0616323064095668E-2</v>
       </c>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
+      <c r="AA7" s="26">
+        <f>RepeatWeightData!AB34</f>
+        <v>7.5977062879151847E-2</v>
+      </c>
+      <c r="AB7" s="26">
+        <f>RepeatWeightData!AC34</f>
+        <v>7.9806162747049186E-2</v>
+      </c>
       <c r="AC7" s="26"/>
     </row>
     <row r="8" spans="1:29">
@@ -17002,8 +17286,14 @@
         <f>RepeatWeightData!AA35</f>
         <v>0.21261596859397058</v>
       </c>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
+      <c r="AA8" s="26">
+        <f>RepeatWeightData!AB35</f>
+        <v>0.21475650869740218</v>
+      </c>
+      <c r="AB8" s="26">
+        <f>RepeatWeightData!AC35</f>
+        <v>0.22010785895598103</v>
+      </c>
       <c r="AC8" s="26"/>
     </row>
     <row r="9" spans="1:29">
@@ -17110,8 +17400,14 @@
         <f>RepeatWeightData!AA36</f>
         <v>0.32940098520201078</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
+      <c r="AA9" s="26">
+        <f>RepeatWeightData!AB36</f>
+        <v>0.33647226703819166</v>
+      </c>
+      <c r="AB9" s="26">
+        <f>RepeatWeightData!AC36</f>
+        <v>0.34354354887437261</v>
+      </c>
       <c r="AC9" s="26"/>
     </row>
     <row r="10" spans="1:29">
@@ -17218,8 +17514,14 @@
         <f>RepeatWeightData!AA37</f>
         <v>3.1426910639245811E-2</v>
       </c>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
+      <c r="AA10" s="26">
+        <f>RepeatWeightData!AB37</f>
+        <v>3.4705445002371195E-2</v>
+      </c>
+      <c r="AB10" s="26">
+        <f>RepeatWeightData!AC37</f>
+        <v>3.4049738129745974E-2</v>
+      </c>
       <c r="AC10" s="26"/>
     </row>
     <row r="11" spans="1:29">
@@ -17326,8 +17628,14 @@
         <f>RepeatWeightData!AA38</f>
         <v>0.13188934368921654</v>
       </c>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
+      <c r="AA11" s="26">
+        <f>RepeatWeightData!AB38</f>
+        <v>0.13657819763987611</v>
+      </c>
+      <c r="AB11" s="26">
+        <f>RepeatWeightData!AC38</f>
+        <v>0.13939151001027181</v>
+      </c>
       <c r="AC11" s="26"/>
     </row>
     <row r="12" spans="1:29">
@@ -17434,8 +17742,14 @@
         <f>RepeatWeightData!AA39</f>
         <v>4.6508168709622467E-2</v>
       </c>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
+      <c r="AA12" s="26">
+        <f>RepeatWeightData!AB39</f>
+        <v>4.9786703072747851E-2</v>
+      </c>
+      <c r="AB12" s="26">
+        <f>RepeatWeightData!AC39</f>
+        <v>5.1753823690623153E-2</v>
+      </c>
       <c r="AC12" s="26"/>
     </row>
     <row r="13" spans="1:29">
@@ -17542,8 +17856,14 @@
         <f>RepeatWeightData!AA40</f>
         <v>7.3679602958413359E-2</v>
       </c>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
+      <c r="AA13" s="26">
+        <f>RepeatWeightData!AB40</f>
+        <v>8.0571982720628613E-2</v>
+      </c>
+      <c r="AB13" s="26">
+        <f>RepeatWeightData!AC40</f>
+        <v>8.4401082588525952E-2</v>
+      </c>
       <c r="AC13" s="26"/>
     </row>
     <row r="14" spans="1:29">
@@ -17650,8 +17970,14 @@
         <f>RepeatWeightData!AA41</f>
         <v>0.126262718948425</v>
       </c>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
+      <c r="AA14" s="26">
+        <f>RepeatWeightData!AB41</f>
+        <v>0.13001380210895269</v>
+      </c>
+      <c r="AB14" s="26">
+        <f>RepeatWeightData!AC41</f>
+        <v>0.13188934368921654</v>
+      </c>
       <c r="AC14" s="26"/>
     </row>
     <row r="15" spans="1:29">
@@ -17758,8 +18084,14 @@
         <f>RepeatWeightData!AA42</f>
         <v>0.21368623864568645</v>
       </c>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
+      <c r="AA15" s="26">
+        <f>RepeatWeightData!AB42</f>
+        <v>0.21368623864568645</v>
+      </c>
+      <c r="AB15" s="26">
+        <f>RepeatWeightData!AC42</f>
+        <v>0.21475650869740218</v>
+      </c>
       <c r="AC15" s="26"/>
     </row>
     <row r="16" spans="1:29">
@@ -17866,8 +18198,14 @@
         <f>RepeatWeightData!AA43</f>
         <v>0.34637206160884498</v>
       </c>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
+      <c r="AA16" s="26">
+        <f>RepeatWeightData!AB43</f>
+        <v>0.354857599812262</v>
+      </c>
+      <c r="AB16" s="26">
+        <f>RepeatWeightData!AC43</f>
+        <v>0.36051462528120681</v>
+      </c>
       <c r="AC16" s="26"/>
     </row>
   </sheetData>
